--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Desktop/Main/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B09A864-AE11-9648-A058-BC3A0D9C6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930D9DE-32EC-C246-8F9C-087BD125DC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="118">
   <si>
     <t>Tr.No</t>
   </si>
@@ -303,10 +303,19 @@
     <t>14:20</t>
   </si>
   <si>
-    <t>44100</t>
-  </si>
-  <si>
-    <t>19600</t>
+    <t>45500</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>20300</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>12:39</t>
   </si>
   <si>
     <t>Trade Type</t>
@@ -346,6 +355,9 @@
   </si>
   <si>
     <t>11:36</t>
+  </si>
+  <si>
+    <t>10:06</t>
   </si>
   <si>
     <t>Trade_Type</t>
@@ -1103,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1633,11 +1645,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2545,10 +2555,10 @@
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>44100</v>
+      </c>
+      <c r="D25" s="2">
         <v>45161</v>
       </c>
       <c r="E25" t="s">
@@ -2583,10 +2593,10 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26">
+        <v>19600</v>
+      </c>
+      <c r="D26" s="2">
         <v>45161</v>
       </c>
       <c r="E26" t="s">
@@ -2612,6 +2622,82 @@
       </c>
       <c r="L26">
         <v>331.02826240000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>117.91578947000001</v>
+      </c>
+      <c r="H27">
+        <v>397.32</v>
+      </c>
+      <c r="I27">
+        <v>279.40421053</v>
+      </c>
+      <c r="J27">
+        <v>285</v>
+      </c>
+      <c r="K27">
+        <v>79630.200001050005</v>
+      </c>
+      <c r="L27">
+        <v>285.46153171728088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28">
+        <v>111.99</v>
+      </c>
+      <c r="H28">
+        <v>150</v>
+      </c>
+      <c r="I28">
+        <v>38.010000000000012</v>
+      </c>
+      <c r="J28">
+        <v>960</v>
+      </c>
+      <c r="K28">
+        <v>36489.600000000013</v>
+      </c>
+      <c r="L28">
+        <v>271.16723200000001</v>
       </c>
     </row>
   </sheetData>
@@ -2621,13 +2707,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2637,7 +2724,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
@@ -2658,10 +2745,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>44</v>
@@ -2678,13 +2765,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -2693,10 +2780,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H2">
         <v>205.95</v>
@@ -2716,13 +2803,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -2731,10 +2818,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H3">
         <v>170.61</v>
@@ -2754,13 +2841,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -2769,10 +2856,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H4">
         <v>154.31</v>
@@ -2801,13 +2888,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -2816,10 +2903,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
         <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
       </c>
       <c r="H5">
         <v>125.68</v>
@@ -2848,13 +2935,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -2863,10 +2950,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
         <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
       </c>
       <c r="H6">
         <v>105.4875</v>
@@ -2895,13 +2982,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -2910,10 +2997,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
         <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
       </c>
       <c r="H7">
         <v>191.61</v>
@@ -2942,13 +3029,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -2957,10 +3044,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H8">
         <v>169.99</v>
@@ -2989,13 +3076,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -3004,10 +3091,10 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H9">
         <v>121.46250000000001</v>
@@ -3036,13 +3123,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>19300</v>
@@ -3051,10 +3138,10 @@
         <v>45154</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H10">
         <v>121.46250000000001</v>
@@ -3083,13 +3170,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>19400</v>
@@ -3098,10 +3185,10 @@
         <v>45155</v>
       </c>
       <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
         <v>103</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
       </c>
       <c r="H11">
         <v>91.199999999999989</v>
@@ -3130,13 +3217,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -3145,10 +3232,10 @@
         <v>45156</v>
       </c>
       <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
         <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
       </c>
       <c r="H12">
         <v>189.6</v>
@@ -3177,13 +3264,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D13">
         <v>19300</v>
@@ -3192,10 +3279,10 @@
         <v>45159</v>
       </c>
       <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
         <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>100</v>
       </c>
       <c r="H13">
         <v>165.00714285999999</v>
@@ -3224,13 +3311,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>19400</v>
@@ -3239,10 +3326,10 @@
         <v>45160</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H14">
         <v>130.65</v>
@@ -3271,25 +3358,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15">
         <v>19400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>45161</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H15">
         <v>95.35</v>
@@ -3314,6 +3401,53 @@
       </c>
       <c r="O15">
         <v>244.76290441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16">
+        <v>125.22</v>
+      </c>
+      <c r="I16">
+        <v>135.99</v>
+      </c>
+      <c r="J16">
+        <v>5.05</v>
+      </c>
+      <c r="K16">
+        <v>3.75</v>
+      </c>
+      <c r="L16">
+        <v>-12.070000000000009</v>
+      </c>
+      <c r="M16">
+        <v>450</v>
+      </c>
+      <c r="N16">
+        <v>-5431.5000000000045</v>
+      </c>
+      <c r="O16">
+        <v>273.09381694000001</v>
       </c>
     </row>
   </sheetData>
@@ -3323,35 +3457,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -3362,7 +3494,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -3391,7 +3523,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>450</v>
@@ -3416,6 +3548,35 @@
       </c>
       <c r="I3">
         <v>1588.7136820550741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4">
+        <v>20039.95</v>
+      </c>
+      <c r="D4">
+        <v>20023.91</v>
+      </c>
+      <c r="E4">
+        <v>23.61</v>
+      </c>
+      <c r="F4">
+        <v>26.38</v>
+      </c>
+      <c r="G4">
+        <v>-13.27000000000087</v>
+      </c>
+      <c r="H4">
+        <v>-7962.0000000005239</v>
+      </c>
+      <c r="I4">
+        <v>2129.204157188</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AmiPy" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZRM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overnight_options" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Holdings" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AmiPy" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZRM" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overnight_options" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,7 +43,17 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,17 +102,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -109,9 +115,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,15 +485,1040 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Tr.No</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry Date</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit Date</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Entry Price</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Exit Price</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Trade Points</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>PnL</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Margin Used </t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>VasconEQ</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>45146</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>56.625</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>-3.375</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>-6075</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>101925</v>
+      </c>
+      <c r="K2" s="5" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Hisarmetal</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>45146</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>189</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>217.96</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>420</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>12163.2</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>79380</v>
+      </c>
+      <c r="K3" s="5" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Asahisong</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>45152</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>245.46</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>230.75</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-14.71</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-1176.8</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>19636.8</v>
+      </c>
+      <c r="K4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>BFInvest</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>45152</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>429.05</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-25.75</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-1287.5</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>21452.5</v>
+      </c>
+      <c r="K5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Dpabhushan</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>45146</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>45152</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>363.41</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>345.25</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-18.16</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-1816</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>36341</v>
+      </c>
+      <c r="K6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Itdcem</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>45152</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>205.75</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>195.45</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-1287.5</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>25718.75</v>
+      </c>
+      <c r="K7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>KALYANKJIL</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45156</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>212.6</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>22380</v>
+      </c>
+      <c r="K8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>BLKashyap</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45156</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-860</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>17760</v>
+      </c>
+      <c r="K9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Bagfilms</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45156</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-900</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>18900</v>
+      </c>
+      <c r="K10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>GRSE</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>45159</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>778.9</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>739.95</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-38.95</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-973.75</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>19472.5</v>
+      </c>
+      <c r="K11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="15.44140625" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Tr.No</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry Date</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit Date</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Entry Price</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Exit Price</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Trade Points</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>PnL</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Margin Used </t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Bancoindia</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>45146</v>
+      </c>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n">
+        <v>388.67</v>
+      </c>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n">
+        <v>116601</v>
+      </c>
+      <c r="K2" s="5" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CAPPL</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n">
+        <v>1052.75</v>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n">
+        <v>21055</v>
+      </c>
+      <c r="K3" s="5" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Everstind</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n">
+        <v>1040.1</v>
+      </c>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n">
+        <v>20802</v>
+      </c>
+      <c r="K4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Hudco</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n">
+        <v>19995</v>
+      </c>
+      <c r="K5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Indigopnts</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n">
+        <v>1568.9</v>
+      </c>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n">
+        <v>17257.9</v>
+      </c>
+      <c r="K6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Lichsgfin</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n">
+        <v>427</v>
+      </c>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n">
+        <v>10675</v>
+      </c>
+      <c r="K7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Motogenfin-BE</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n">
+        <v>450</v>
+      </c>
+      <c r="K8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Onmobile</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n">
+        <v>103.85</v>
+      </c>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n">
+        <v>10385</v>
+      </c>
+      <c r="K9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Orientcem</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n">
+        <v>39440</v>
+      </c>
+      <c r="K10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>OLECTRA</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n">
+        <v>1223.75</v>
+      </c>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n">
+        <v>18356.25</v>
+      </c>
+      <c r="K11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>KOTARISUG</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n">
+        <v>16875</v>
+      </c>
+      <c r="K12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>IIFLSEC</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n">
+        <v>20925</v>
+      </c>
+      <c r="K13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>DREDGECORP</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n">
+        <v>418.93</v>
+      </c>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n">
+        <v>17595.06</v>
+      </c>
+      <c r="K15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>COCHINSHIP</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n">
+        <v>807.22</v>
+      </c>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I16" s="5" t="n"/>
+      <c r="J16" s="5" t="n">
+        <v>20180.5</v>
+      </c>
+      <c r="K16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>DBREALTY</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n">
+        <v>121.55</v>
+      </c>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+      <c r="H17" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="I17" s="5" t="n"/>
+      <c r="J17" s="5" t="n">
+        <v>18232.5</v>
+      </c>
+      <c r="K17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>ARVIND</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>45154</v>
+      </c>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="I18" s="5" t="n"/>
+      <c r="J18" s="5" t="n">
+        <v>19137.5</v>
+      </c>
+      <c r="K18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>DPABHUSHAN</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>45155</v>
+      </c>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n">
+        <v>376.68</v>
+      </c>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n">
+        <v>56502</v>
+      </c>
+      <c r="K19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>BLKASHYAP</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>45155</v>
+      </c>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n">
+        <v>49.74</v>
+      </c>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n">
+        <v>44766</v>
+      </c>
+      <c r="K20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="5" t="n"/>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="18.109375" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Strategy</t>
@@ -1777,7 +2810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2710,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2883,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2891,7 +3924,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -3399,7 +4432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3408,103 +4441,103 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>SI NO</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Transaction Type</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Opening Balance</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MP Wizard</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>AmiPy</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>ZRM</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Overnight Options</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Error Trade</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Gross PnL</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Tax</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Transaction Amount</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>Deposit</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Telegram Balance</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Difference Amount</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -3542,34 +4575,24 @@
           <t>₹ -5,695.00</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>₹ 0.00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>₹ -49,887.70</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>₹ 0.00</t>
-        </is>
+      <c r="L2" t="n">
+        <v>1553.45</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>₹ -49,887.70</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3590,7 +4613,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>₹ -20,459.50</t>
@@ -3601,13 +4623,11 @@
           <t>₹ 7,744.00</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>₹ 0.00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>₹ -12,715.50</t>
@@ -3623,12 +4643,6 @@
           <t>₹ -12,715.50</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3649,7 +4663,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>₹ -30,033.00</t>
@@ -3660,13 +4673,11 @@
           <t>₹ 7,847.50</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>₹ -1,480.00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>₹ -23,665.50</t>
@@ -3682,12 +4693,6 @@
           <t>₹ -24,133.00</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3708,7 +4713,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>₹ 89,904.50</t>
@@ -3719,13 +4723,11 @@
           <t>₹ -5,181.00</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>₹ 13,187.50</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>₹ 97,911.00</t>
@@ -3741,12 +4743,6 @@
           <t>₹ 97,246.13</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3767,7 +4763,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>₹ -38,782.00</t>
@@ -3778,13 +4773,11 @@
           <t>₹ 16,835.00</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>₹ 28,657.50</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>₹ 6,710.50</t>
@@ -3800,12 +4793,6 @@
           <t>₹ 6,297.88</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3826,7 +4813,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>₹ -4,500.00</t>
@@ -3837,9 +4823,6 @@
           <t>₹ 6,462.50</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>₹ 1,962.50</t>
@@ -3855,12 +4838,6 @@
           <t>₹ 1,364.82</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3881,7 +4858,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>₹ -13,591.20</t>
@@ -3902,7 +4878,6 @@
           <t>₹ 21,950.00</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>₹ -2,812.85</t>
@@ -3918,12 +4893,6 @@
           <t>₹ -3,423.57</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3944,7 +4913,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>₹ 18,686.40</t>
@@ -3965,7 +4933,6 @@
           <t>₹ 45,435.00</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>₹ 39,790.65</t>
@@ -3981,12 +4948,6 @@
           <t>₹ 38,779.93</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4007,7 +4968,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>₹ -27,174.75</t>
@@ -4018,13 +4978,11 @@
           <t>₹ 24,097.50</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>₹ -13,345.00</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>₹ -16,422.25</t>
@@ -4040,12 +4998,6 @@
           <t>₹ -16,806.44</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4066,7 +5018,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>₹ -14,641.70</t>
@@ -4077,9 +5028,6 @@
           <t>₹ 2,597.50</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>₹ -12,044.20</t>
@@ -4095,12 +5043,6 @@
           <t>₹ -12,699.63</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4121,7 +5063,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>₹ 44,813.50</t>
@@ -4132,13 +5073,11 @@
           <t>₹ -277.50</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>₹ 29,275.00</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>₹ 73,811.00</t>
@@ -4154,12 +5093,6 @@
           <t>₹ 73,157.87</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4180,7 +5113,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>₹ -25,127.40</t>
@@ -4191,13 +5123,11 @@
           <t>₹ 4,742.50</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>₹ 1,670.00</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>₹ -18,714.90</t>
@@ -4213,12 +5143,6 @@
           <t>₹ -19,122.43</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4239,7 +5163,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>₹ 126,166.50</t>
@@ -4250,13 +5173,11 @@
           <t>₹ -544.50</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>₹ -4,145.00</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>₹ 121,477.00</t>
@@ -4272,12 +5193,6 @@
           <t>₹ 120,634.75</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4298,16 +5213,11 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>₹ -53,622.50</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>₹ -53,622.50</t>
@@ -4323,12 +5233,6 @@
           <t>₹ -53,622.50</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4349,16 +5253,11 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>₹ 0.00</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>₹ 0.00</t>
@@ -4374,12 +5273,6 @@
           <t>₹ 0.00</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4400,16 +5293,11 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>₹ 7,746.00</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>₹ 7,746.00</t>
@@ -4425,12 +5313,6 @@
           <t>₹ 5,860.46</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4451,16 +5333,11 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>₹ 31,638.50</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>₹ 31,638.50</t>
@@ -4476,12 +5353,6 @@
           <t>₹ 29,753.43</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4502,16 +5373,11 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>₹ 9,892.50</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>₹ 9,892.50</t>
@@ -4527,12 +5393,6 @@
           <t>₹ 8,013.05</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4553,16 +5413,11 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>₹ -1,327.50</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>₹ -1,327.50</t>
@@ -4578,12 +5433,6 @@
           <t>₹ -3,254.57</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4604,7 +5453,6 @@
           <t>Trade</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>₹ 116,119.80</t>
@@ -4615,9 +5463,6 @@
           <t>₹ -5,431.50</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>₹ 110,688.30</t>
@@ -4633,12 +5478,6 @@
           <t>₹ 109,858.58</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Desktop/Main/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD879915-1669-9F46-8169-0D73FDD8C44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE7BED-09F7-7F46-A2FF-EACBFD656BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="151">
   <si>
     <t>Tr.No</t>
   </si>
@@ -321,24 +321,84 @@
     <t>14:05</t>
   </si>
   <si>
-    <t>20500</t>
-  </si>
-  <si>
     <t>10:51</t>
   </si>
   <si>
     <t>11:32</t>
   </si>
   <si>
-    <t>46200</t>
-  </si>
-  <si>
     <t>10:57</t>
   </si>
   <si>
     <t>12:15</t>
   </si>
   <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>11:22</t>
+  </si>
+  <si>
+    <t>13:36</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>12:04</t>
+  </si>
+  <si>
+    <t>14:41</t>
+  </si>
+  <si>
+    <t>12:08</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>12:17</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>13:34</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>10:22</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>13:23</t>
+  </si>
+  <si>
+    <t>19800</t>
+  </si>
+  <si>
+    <t>11:11</t>
+  </si>
+  <si>
+    <t>44600</t>
+  </si>
+  <si>
     <t>Trade Type</t>
   </si>
   <si>
@@ -387,6 +447,15 @@
     <t>09:36</t>
   </si>
   <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>14:21</t>
+  </si>
+  <si>
+    <t>11:34</t>
+  </si>
+  <si>
     <t>Trade_Type</t>
   </si>
   <si>
@@ -406,6 +475,9 @@
   </si>
   <si>
     <t>BULLISH</t>
+  </si>
+  <si>
+    <t>BEARISH</t>
   </si>
 </sst>
 </file>
@@ -466,15 +538,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,9 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:N19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1144,10 +1212,10 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>45146</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>45182</v>
       </c>
       <c r="E12">
@@ -1176,10 +1244,10 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>45148</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>45181</v>
       </c>
       <c r="E13">
@@ -1208,10 +1276,10 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>45148</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>45181</v>
       </c>
       <c r="E14">
@@ -1240,10 +1308,10 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>45148</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>45181</v>
       </c>
       <c r="E15">
@@ -1272,10 +1340,10 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>45148</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>45182</v>
       </c>
       <c r="E16">
@@ -1304,10 +1372,10 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>45148</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>45182</v>
       </c>
       <c r="E17">
@@ -1336,10 +1404,10 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>45148</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>45152</v>
       </c>
       <c r="E18">
@@ -1368,10 +1436,10 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>45148</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>45149</v>
       </c>
       <c r="E19">
@@ -1400,10 +1468,10 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>45148</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>45149</v>
       </c>
       <c r="E20">
@@ -1432,10 +1500,10 @@
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>45154</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>45182</v>
       </c>
       <c r="E21">
@@ -1464,10 +1532,10 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>45154</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>45182</v>
       </c>
       <c r="E22">
@@ -1496,10 +1564,10 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>45154</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>45181</v>
       </c>
       <c r="E23">
@@ -1528,10 +1596,10 @@
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>45154</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>45182</v>
       </c>
       <c r="E24">
@@ -1560,10 +1628,10 @@
       <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>45154</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>45182</v>
       </c>
       <c r="E25">
@@ -1592,10 +1660,10 @@
       <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>45154</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>45182</v>
       </c>
       <c r="E26">
@@ -1624,10 +1692,10 @@
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>45154</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>45182</v>
       </c>
       <c r="E27">
@@ -1656,10 +1724,10 @@
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>45155</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>45182</v>
       </c>
       <c r="E28">
@@ -1688,10 +1756,10 @@
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>45155</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>45181</v>
       </c>
       <c r="E29">
@@ -1720,11 +1788,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1759,60 +1825,6 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1948,9 +1960,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:H52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3086,17 +3100,17 @@
       <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>20500</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45184</v>
+      </c>
+      <c r="E31" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="3">
-        <v>45184</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>99</v>
-      </c>
-      <c r="F31" t="s">
-        <v>100</v>
       </c>
       <c r="G31">
         <v>88.766666669999992</v>
@@ -3124,17 +3138,17 @@
       <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>46200</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45184</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
         <v>101</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45184</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" t="s">
-        <v>103</v>
       </c>
       <c r="G32">
         <v>244.72738095</v>
@@ -3153,6 +3167,766 @@
       </c>
       <c r="L32">
         <v>270.83128600183011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>46200</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33">
+        <v>161</v>
+      </c>
+      <c r="H33">
+        <v>136.91</v>
+      </c>
+      <c r="I33">
+        <v>-24.09</v>
+      </c>
+      <c r="J33">
+        <v>525</v>
+      </c>
+      <c r="K33">
+        <v>-12647.25</v>
+      </c>
+      <c r="L33">
+        <v>137.15203199499999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>20500</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45187</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34">
+        <v>17.95</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>-15.95</v>
+      </c>
+      <c r="J34">
+        <v>1440</v>
+      </c>
+      <c r="K34">
+        <v>-22968</v>
+      </c>
+      <c r="L34">
+        <v>51.478038400000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>20200</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35">
+        <v>121.21666667</v>
+      </c>
+      <c r="H35">
+        <v>133.79</v>
+      </c>
+      <c r="I35">
+        <v>12.573333330000001</v>
+      </c>
+      <c r="J35">
+        <v>1080</v>
+      </c>
+      <c r="K35">
+        <v>13579.199996400001</v>
+      </c>
+      <c r="L35">
+        <v>243.83115997160789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>20000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45189</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36">
+        <v>51.3</v>
+      </c>
+      <c r="H36">
+        <v>28</v>
+      </c>
+      <c r="I36">
+        <v>-23.3</v>
+      </c>
+      <c r="J36">
+        <v>1050</v>
+      </c>
+      <c r="K36">
+        <v>-24465</v>
+      </c>
+      <c r="L36">
+        <v>84.571641999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>19750</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45190</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>-6.8000000000000007</v>
+      </c>
+      <c r="J37">
+        <v>1050</v>
+      </c>
+      <c r="K37">
+        <v>-7140.0000000000009</v>
+      </c>
+      <c r="L37">
+        <v>50.031177999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>45000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45190</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38">
+        <v>284.66000000000003</v>
+      </c>
+      <c r="H38">
+        <v>418.13</v>
+      </c>
+      <c r="I38">
+        <v>133.47</v>
+      </c>
+      <c r="J38">
+        <v>285</v>
+      </c>
+      <c r="K38">
+        <v>38038.94999999999</v>
+      </c>
+      <c r="L38">
+        <v>242.11111336900001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>45000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45191</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39">
+        <v>275.94555556</v>
+      </c>
+      <c r="H39">
+        <v>295.01</v>
+      </c>
+      <c r="I39">
+        <v>19.064444439999988</v>
+      </c>
+      <c r="J39">
+        <v>675</v>
+      </c>
+      <c r="K39">
+        <v>12868.49999699999</v>
+      </c>
+      <c r="L39">
+        <v>311.05357421133988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>19800</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40">
+        <v>85.840277779999994</v>
+      </c>
+      <c r="H40">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>0.1597222200000061</v>
+      </c>
+      <c r="J40">
+        <v>1800</v>
+      </c>
+      <c r="K40">
+        <v>287.49999600001098</v>
+      </c>
+      <c r="L40">
+        <v>240.45941399512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>19600</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41">
+        <v>109.04166667</v>
+      </c>
+      <c r="H41">
+        <v>110</v>
+      </c>
+      <c r="I41">
+        <v>0.95833333000000209</v>
+      </c>
+      <c r="J41">
+        <v>1500</v>
+      </c>
+      <c r="K41">
+        <v>1437.4999950000031</v>
+      </c>
+      <c r="L41">
+        <v>254.5734499939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>44400</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42">
+        <v>212.18</v>
+      </c>
+      <c r="H42">
+        <v>162.91</v>
+      </c>
+      <c r="I42">
+        <v>-49.27000000000001</v>
+      </c>
+      <c r="J42">
+        <v>540</v>
+      </c>
+      <c r="K42">
+        <v>-26605.80000000001</v>
+      </c>
+      <c r="L42">
+        <v>157.62637325200001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>19650</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43">
+        <v>66.198076920000005</v>
+      </c>
+      <c r="H43">
+        <v>46</v>
+      </c>
+      <c r="I43">
+        <v>-20.198076920000009</v>
+      </c>
+      <c r="J43">
+        <v>1300</v>
+      </c>
+      <c r="K43">
+        <v>-26257.49999600001</v>
+      </c>
+      <c r="L43">
+        <v>122.50928899988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>44600</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45195</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44">
+        <v>217.36071429</v>
+      </c>
+      <c r="H44">
+        <v>152.75</v>
+      </c>
+      <c r="I44">
+        <v>-64.610714290000004</v>
+      </c>
+      <c r="J44">
+        <v>420</v>
+      </c>
+      <c r="K44">
+        <v>-27136.500001799999</v>
+      </c>
+      <c r="L44">
+        <v>127.96277290005401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>19650</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45195</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45">
+        <v>66.198076920000005</v>
+      </c>
+      <c r="H45">
+        <v>46</v>
+      </c>
+      <c r="I45">
+        <v>-20.198076920000009</v>
+      </c>
+      <c r="J45">
+        <v>1300</v>
+      </c>
+      <c r="K45">
+        <v>-26257.49999600001</v>
+      </c>
+      <c r="L45">
+        <v>122.50928899988</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>44600</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46">
+        <v>217.36071429</v>
+      </c>
+      <c r="H46">
+        <v>152.75</v>
+      </c>
+      <c r="I46">
+        <v>-64.610714290000004</v>
+      </c>
+      <c r="J46">
+        <v>420</v>
+      </c>
+      <c r="K46">
+        <v>-27136.500001799999</v>
+      </c>
+      <c r="L46">
+        <v>127.96277290005401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>19550</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47">
+        <v>58.83</v>
+      </c>
+      <c r="H47">
+        <v>141.54</v>
+      </c>
+      <c r="I47">
+        <v>82.71</v>
+      </c>
+      <c r="J47">
+        <v>1100</v>
+      </c>
+      <c r="K47">
+        <v>90981</v>
+      </c>
+      <c r="L47">
+        <v>352.21956891999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>44200</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45196</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48">
+        <v>193.22045455</v>
+      </c>
+      <c r="H48">
+        <v>113.95</v>
+      </c>
+      <c r="I48">
+        <v>-79.270454549999997</v>
+      </c>
+      <c r="J48">
+        <v>330</v>
+      </c>
+      <c r="K48">
+        <v>-26159.250001500001</v>
+      </c>
+      <c r="L48">
+        <v>94.845507130045007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>44700</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49">
+        <v>126.495</v>
+      </c>
+      <c r="H49">
+        <v>261.52999999999997</v>
+      </c>
+      <c r="I49">
+        <v>135.035</v>
+      </c>
+      <c r="J49">
+        <v>300</v>
+      </c>
+      <c r="K49">
+        <v>40510.499999999993</v>
+      </c>
+      <c r="L49">
+        <v>194.39684661999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>19650</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50">
+        <v>29.1</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>-24.1</v>
+      </c>
+      <c r="J50">
+        <v>1050</v>
+      </c>
+      <c r="K50">
+        <v>-25305</v>
+      </c>
+      <c r="L50">
+        <v>54.501594999999988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="3">
+        <v>45198</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51">
+        <v>55.06</v>
+      </c>
+      <c r="H51">
+        <v>62</v>
+      </c>
+      <c r="I51">
+        <v>6.9399999999999977</v>
+      </c>
+      <c r="J51">
+        <v>1760</v>
+      </c>
+      <c r="K51">
+        <v>12214.4</v>
+      </c>
+      <c r="L51">
+        <v>198.0847296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="3">
+        <v>45198</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52">
+        <v>229.44</v>
+      </c>
+      <c r="H52">
+        <v>210.69</v>
+      </c>
+      <c r="I52">
+        <v>-18.75</v>
+      </c>
+      <c r="J52">
+        <v>660</v>
+      </c>
+      <c r="K52">
+        <v>-12375</v>
+      </c>
+      <c r="L52">
+        <v>220.85930837199999</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3936,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3179,7 +3953,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
@@ -3200,10 +3974,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>44</v>
@@ -3220,13 +3994,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -3235,10 +4009,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>205.95</v>
@@ -3258,13 +4032,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -3273,10 +4047,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>170.61</v>
@@ -3296,13 +4070,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -3311,10 +4085,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>154.31</v>
@@ -3343,13 +4117,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -3358,10 +4132,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <v>125.68</v>
@@ -3390,13 +4164,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -3405,10 +4179,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>105.4875</v>
@@ -3437,13 +4211,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -3452,10 +4226,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>191.61</v>
@@ -3484,13 +4258,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -3499,10 +4273,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H8">
         <v>169.99</v>
@@ -3531,13 +4305,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -3546,10 +4320,10 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <v>121.46250000000001</v>
@@ -3578,13 +4352,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D10">
         <v>19300</v>
@@ -3593,10 +4367,10 @@
         <v>45154</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>121.46250000000001</v>
@@ -3625,13 +4399,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>19400</v>
@@ -3640,10 +4414,10 @@
         <v>45155</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <v>91.199999999999989</v>
@@ -3672,13 +4446,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -3687,10 +4461,10 @@
         <v>45156</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H12">
         <v>189.6</v>
@@ -3719,13 +4493,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>19300</v>
@@ -3734,10 +4508,10 @@
         <v>45159</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H13">
         <v>165.00714285999999</v>
@@ -3766,13 +4540,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>19400</v>
@@ -3781,10 +4555,10 @@
         <v>45160</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H14">
         <v>130.65</v>
@@ -3813,13 +4587,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D15">
         <v>19400</v>
@@ -3828,10 +4602,10 @@
         <v>45161</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H15">
         <v>95.35</v>
@@ -3860,13 +4634,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>20000</v>
@@ -3875,10 +4649,10 @@
         <v>45182</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H16">
         <v>125.22</v>
@@ -3907,13 +4681,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D17">
         <v>20100</v>
@@ -3922,10 +4696,10 @@
         <v>45183</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H17">
         <v>89.25</v>
@@ -3954,25 +4728,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>20200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>45184</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H18">
         <v>193.47</v>
@@ -3997,6 +4771,476 @@
       </c>
       <c r="O18">
         <v>305.65576989999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>20100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19">
+        <v>171.29</v>
+      </c>
+      <c r="I19">
+        <v>150.29499999999999</v>
+      </c>
+      <c r="J19">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="K19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L19">
+        <v>18.29500000000003</v>
+      </c>
+      <c r="M19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <v>9147.5000000000146</v>
+      </c>
+      <c r="O19">
+        <v>285.98049555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45189</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <v>131.44999999999999</v>
+      </c>
+      <c r="I20">
+        <v>153.65</v>
+      </c>
+      <c r="J20">
+        <v>4.5</v>
+      </c>
+      <c r="K20">
+        <v>6.6</v>
+      </c>
+      <c r="L20">
+        <v>-20.100000000000019</v>
+      </c>
+      <c r="M20">
+        <v>500</v>
+      </c>
+      <c r="N20">
+        <v>-10050.000000000009</v>
+      </c>
+      <c r="O20">
+        <v>303.47317249999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21">
+        <v>19800</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45190</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21">
+        <v>74.45</v>
+      </c>
+      <c r="I21">
+        <v>68.474999999999994</v>
+      </c>
+      <c r="J21">
+        <v>1.4</v>
+      </c>
+      <c r="K21">
+        <v>0.15</v>
+      </c>
+      <c r="L21">
+        <v>4.7250000000000094</v>
+      </c>
+      <c r="M21">
+        <v>500</v>
+      </c>
+      <c r="N21">
+        <v>2362.5000000000041</v>
+      </c>
+      <c r="O21">
+        <v>231.66792624999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <v>19800</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45191</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22">
+        <v>201.86500000000001</v>
+      </c>
+      <c r="I22">
+        <v>188.685</v>
+      </c>
+      <c r="J22">
+        <v>13.64</v>
+      </c>
+      <c r="K22">
+        <v>11.95</v>
+      </c>
+      <c r="L22">
+        <v>11.490000000000011</v>
+      </c>
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
+        <v>5745.0000000000027</v>
+      </c>
+      <c r="O22">
+        <v>314.03671215000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23">
+        <v>19600</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23">
+        <v>195.95500000000001</v>
+      </c>
+      <c r="I23">
+        <v>158.87</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>5.65</v>
+      </c>
+      <c r="L23">
+        <v>33.734999999999978</v>
+      </c>
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
+        <v>16867.499999999989</v>
+      </c>
+      <c r="O23">
+        <v>291.91729179999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24">
+        <v>19700</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24">
+        <v>145.35</v>
+      </c>
+      <c r="I24">
+        <v>123.62</v>
+      </c>
+      <c r="J24">
+        <v>5.5</v>
+      </c>
+      <c r="K24">
+        <v>3.25</v>
+      </c>
+      <c r="L24">
+        <v>19.47999999999999</v>
+      </c>
+      <c r="M24">
+        <v>500</v>
+      </c>
+      <c r="N24">
+        <v>9739.9999999999945</v>
+      </c>
+      <c r="O24">
+        <v>268.21112829999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25">
+        <v>19700</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25">
+        <v>145.35</v>
+      </c>
+      <c r="I25">
+        <v>123.62</v>
+      </c>
+      <c r="J25">
+        <v>5.5</v>
+      </c>
+      <c r="K25">
+        <v>3.25</v>
+      </c>
+      <c r="L25">
+        <v>19.47999999999999</v>
+      </c>
+      <c r="M25">
+        <v>500</v>
+      </c>
+      <c r="N25">
+        <v>9739.9999999999945</v>
+      </c>
+      <c r="O25">
+        <v>268.21112829999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <v>19600</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26">
+        <v>119.05</v>
+      </c>
+      <c r="I26">
+        <v>151.44999999999999</v>
+      </c>
+      <c r="J26">
+        <v>3.2</v>
+      </c>
+      <c r="K26">
+        <v>2.25</v>
+      </c>
+      <c r="L26">
+        <v>-33.349999999999987</v>
+      </c>
+      <c r="M26">
+        <v>500</v>
+      </c>
+      <c r="N26">
+        <v>-16675</v>
+      </c>
+      <c r="O26">
+        <v>304.34718299999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>19700</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45197</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27">
+        <v>80.94</v>
+      </c>
+      <c r="I27">
+        <v>114.68</v>
+      </c>
+      <c r="J27">
+        <v>1.75</v>
+      </c>
+      <c r="K27">
+        <v>2.15</v>
+      </c>
+      <c r="L27">
+        <v>-33.340000000000003</v>
+      </c>
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27">
+        <v>-16670</v>
+      </c>
+      <c r="O27">
+        <v>282.42100470000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28">
+        <v>19600</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45198</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28">
+        <v>208.11</v>
+      </c>
+      <c r="I28">
+        <v>189.755</v>
+      </c>
+      <c r="J28">
+        <v>13.1</v>
+      </c>
+      <c r="K28">
+        <v>6.5</v>
+      </c>
+      <c r="L28">
+        <v>11.75500000000002</v>
+      </c>
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28">
+        <v>5877.5000000000082</v>
+      </c>
+      <c r="O28">
+        <v>311.45885294999988</v>
       </c>
     </row>
   </sheetData>
@@ -4006,7 +5250,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4014,25 +5258,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -4043,7 +5287,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -4072,7 +5316,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>450</v>
@@ -4101,7 +5345,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <v>600</v>
@@ -4130,7 +5374,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>550</v>
@@ -4159,7 +5403,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>550</v>
@@ -4184,6 +5428,180 @@
       </c>
       <c r="I6">
         <v>1975.5473684189999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>650</v>
+      </c>
+      <c r="C7">
+        <v>19966.46</v>
+      </c>
+      <c r="D7">
+        <v>19860.992307690001</v>
+      </c>
+      <c r="E7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F7">
+        <v>1.8</v>
+      </c>
+      <c r="G7">
+        <v>97.467692309997801</v>
+      </c>
+      <c r="H7">
+        <v>63354.000001498571</v>
+      </c>
+      <c r="I7">
+        <v>2260.241214609779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8">
+        <v>650</v>
+      </c>
+      <c r="C8">
+        <v>19782.611538460002</v>
+      </c>
+      <c r="D8">
+        <v>19789.759999999998</v>
+      </c>
+      <c r="E8">
+        <v>53.534615379999998</v>
+      </c>
+      <c r="F8">
+        <v>51.15</v>
+      </c>
+      <c r="G8">
+        <v>-9.5330769199967875</v>
+      </c>
+      <c r="H8">
+        <v>-6196.499997997912</v>
+      </c>
+      <c r="I8">
+        <v>2290.8848666218901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>650</v>
+      </c>
+      <c r="C9">
+        <v>19702.599999999999</v>
+      </c>
+      <c r="D9">
+        <v>19689</v>
+      </c>
+      <c r="E9">
+        <v>22.95</v>
+      </c>
+      <c r="F9">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="G9">
+        <v>9.7999999999985441</v>
+      </c>
+      <c r="H9">
+        <v>6369.9999999990532</v>
+      </c>
+      <c r="I9">
+        <v>2254.2889188499998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>650</v>
+      </c>
+      <c r="C10">
+        <v>19702.599999999999</v>
+      </c>
+      <c r="D10">
+        <v>19689</v>
+      </c>
+      <c r="E10">
+        <v>22.95</v>
+      </c>
+      <c r="F10">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="G10">
+        <v>9.7999999999985441</v>
+      </c>
+      <c r="H10">
+        <v>6369.9999999990532</v>
+      </c>
+      <c r="I10">
+        <v>2254.2889188499998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>650</v>
+      </c>
+      <c r="C11">
+        <v>19678.911538460001</v>
+      </c>
+      <c r="D11">
+        <v>19623.37</v>
+      </c>
+      <c r="E11">
+        <v>12.77692308</v>
+      </c>
+      <c r="F11">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G11">
+        <v>-50.4184615400019</v>
+      </c>
+      <c r="H11">
+        <v>-32772.000001001237</v>
+      </c>
+      <c r="I11">
+        <v>2250.6630502865401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>650</v>
+      </c>
+      <c r="C12">
+        <v>19712.099999999999</v>
+      </c>
+      <c r="D12">
+        <v>19720.603846149999</v>
+      </c>
+      <c r="E12">
+        <v>1.4</v>
+      </c>
+      <c r="F12">
+        <v>1.25</v>
+      </c>
+      <c r="G12">
+        <v>-8.6538461500043926</v>
+      </c>
+      <c r="H12">
+        <v>-5624.999997502855</v>
+      </c>
+      <c r="I12">
+        <v>2242.8727389146311</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanis\OneDrive\Desktop\TRADEMAN\TradeMan\UserProfile\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39f2475f2172c607/Desktop/TRADEMAN/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52348087-48DF-43DF-A140-BF9F070DE46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_3215BAD5EB2C3D1058EF4E4C43DA0C043E72A8F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{855DDEB0-8EE6-4DDA-85F8-A1AACFB34A29}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="851">
   <si>
     <t>Tr.No</t>
   </si>
@@ -942,6 +942,12 @@
     <t>AP56</t>
   </si>
   <si>
+    <t>AP57</t>
+  </si>
+  <si>
+    <t>AP58</t>
+  </si>
+  <si>
     <t>Startegy</t>
   </si>
   <si>
@@ -1098,7 +1104,7 @@
     <t>OO42</t>
   </si>
   <si>
-    <t>SI NO</t>
+    <t>Sl NO</t>
   </si>
   <si>
     <t>Day</t>
@@ -1113,7 +1119,7 @@
     <t>Running Balance</t>
   </si>
   <si>
-    <t>08-Jul-23</t>
+    <t>07-Jul-23</t>
   </si>
   <si>
     <t>Friday</t>
@@ -1122,9 +1128,6 @@
     <t>Opening Balance</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>₹ 0.00</t>
   </si>
   <si>
@@ -2572,6 +2575,24 @@
   </si>
   <si>
     <t>₹ 430,606.12</t>
+  </si>
+  <si>
+    <t>29-Sep-23</t>
+  </si>
+  <si>
+    <t>₹ 5,566.04</t>
+  </si>
+  <si>
+    <t>₹ 436,172.16</t>
+  </si>
+  <si>
+    <t>03-Oct-23</t>
+  </si>
+  <si>
+    <t>₹ 12,053.41</t>
+  </si>
+  <si>
+    <t>₹ 448,225.57</t>
   </si>
 </sst>
 </file>
@@ -2579,8 +2600,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2670,7 +2691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2715,19 +2736,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2740,7 +2748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2851,9 +2859,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2879,12 +2884,16 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4307,18 +4316,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.77734375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="3" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" style="7" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" style="15" customWidth="1"/>
@@ -4327,49 +4338,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10137,10 +10148,10 @@
       <c r="H116" s="8">
         <v>0.56527777777777777</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116" s="9">
         <v>66.198076920000005</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="3">
         <v>46</v>
       </c>
       <c r="K116">
@@ -10185,10 +10196,10 @@
       <c r="H117" s="8">
         <v>0.55208333333333337</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117" s="9">
         <v>217.36071430000001</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="3">
         <v>152.75</v>
       </c>
       <c r="K117">
@@ -10233,10 +10244,10 @@
       <c r="H118" s="8">
         <v>0.59722222222222221</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118" s="9">
         <v>58.83</v>
       </c>
-      <c r="J118" s="7">
+      <c r="J118" s="9">
         <v>141.54</v>
       </c>
       <c r="K118" s="14">
@@ -10283,10 +10294,10 @@
       <c r="H119" s="8">
         <v>0.46319444444444452</v>
       </c>
-      <c r="I119" s="7">
+      <c r="I119" s="9">
         <v>193.22</v>
       </c>
-      <c r="J119" s="7">
+      <c r="J119" s="9">
         <v>113.95</v>
       </c>
       <c r="K119" s="14">
@@ -10333,10 +10344,10 @@
       <c r="H120" s="8">
         <v>0.4909722222222222</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="9">
         <v>126.495</v>
       </c>
-      <c r="J120" s="7">
+      <c r="J120" s="9">
         <v>261.52999999999997</v>
       </c>
       <c r="K120" s="7">
@@ -10382,10 +10393,10 @@
       <c r="H121" s="8">
         <v>0.55763888888888891</v>
       </c>
-      <c r="I121" s="7">
+      <c r="I121" s="9">
         <v>29.1</v>
       </c>
-      <c r="J121" s="7">
+      <c r="J121" s="9">
         <v>5</v>
       </c>
       <c r="K121" s="7">
@@ -10407,7 +10418,7 @@
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F122" s="42"/>
+      <c r="F122" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10417,10 +10428,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13514,8 +13525,112 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B58" s="25"/>
-      <c r="P58" s="40"/>
+      <c r="A58" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="25">
+        <v>19600</v>
+      </c>
+      <c r="F58" s="26">
+        <v>45198</v>
+      </c>
+      <c r="G58" s="32">
+        <v>0.38958333333333328</v>
+      </c>
+      <c r="H58" s="32">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="I58" s="27">
+        <v>208.11</v>
+      </c>
+      <c r="J58" s="27">
+        <v>189.755</v>
+      </c>
+      <c r="K58" s="27">
+        <v>13.1</v>
+      </c>
+      <c r="L58" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="M58" s="27">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="N58" s="38">
+        <v>500</v>
+      </c>
+      <c r="O58" s="31">
+        <v>5877.5</v>
+      </c>
+      <c r="P58" s="50">
+        <v>311.45885299999998</v>
+      </c>
+      <c r="Q58" s="39">
+        <f>O58-P58</f>
+        <v>5566.0411469999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="25">
+        <v>19500</v>
+      </c>
+      <c r="F59" s="26">
+        <v>45202</v>
+      </c>
+      <c r="G59" s="32">
+        <v>0.38958333333333328</v>
+      </c>
+      <c r="H59" s="32">
+        <v>0.38958333333333328</v>
+      </c>
+      <c r="I59" s="27">
+        <v>164.31</v>
+      </c>
+      <c r="J59" s="27">
+        <v>136.44999999999999</v>
+      </c>
+      <c r="K59" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="L59" s="27">
+        <v>3.7</v>
+      </c>
+      <c r="M59" s="27">
+        <v>24.66</v>
+      </c>
+      <c r="N59" s="38">
+        <v>500</v>
+      </c>
+      <c r="O59" s="31">
+        <v>12330</v>
+      </c>
+      <c r="P59" s="50">
+        <v>276.59196350000002</v>
+      </c>
+      <c r="Q59" s="39">
+        <f>O59-P59</f>
+        <v>12053.408036500001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13533,7 +13648,7 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
@@ -13547,10 +13662,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>41</v>
@@ -13562,19 +13677,19 @@
         <v>43</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>7</v>
@@ -13585,42 +13700,42 @@
       <c r="N1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D2" s="26">
         <v>45124</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="46">
         <v>19728.75</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="46">
         <v>19786.25</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="46">
         <v>6.55</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="46">
         <v>5.45</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="47">
         <v>56.4</v>
       </c>
       <c r="L2" s="25">
@@ -13632,43 +13747,43 @@
       <c r="N2" s="27">
         <v>1757.4199999999901</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="48">
         <f t="shared" ref="O2:O43" si="0">M2-N2</f>
         <v>26442.580000000009</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="C3" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D3" s="26">
         <v>45125</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <v>19774</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="46">
         <v>19793.57</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="46">
         <v>21.85</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>16.899999999999999</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <v>14.62</v>
       </c>
       <c r="L3" s="25">
@@ -13680,43 +13795,43 @@
       <c r="N3" s="27">
         <v>1765.1499999999901</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="48">
         <f t="shared" si="0"/>
         <v>5544.8500000000095</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>311</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>309</v>
       </c>
       <c r="D4" s="26">
         <v>45126</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>19846.400000000001</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>19816.97</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="46">
         <v>12.95</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <v>4.5</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="47">
         <v>-37.880000000000003</v>
       </c>
       <c r="L4" s="25">
@@ -13728,43 +13843,43 @@
       <c r="N4" s="27">
         <v>1759.21</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="48">
         <f t="shared" si="0"/>
         <v>-20699.21</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D5" s="26">
         <v>45127</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="46">
         <v>19967.8</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>19860.13</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="46">
         <v>51.45</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <v>88.98</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <v>-70.14</v>
       </c>
       <c r="L5" s="25">
@@ -13776,43 +13891,43 @@
       <c r="N5" s="27">
         <v>1837.8</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="48">
         <f t="shared" si="0"/>
         <v>-36907.800000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D6" s="26">
         <v>45131</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="46">
         <v>19694.47</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>19718.580000000002</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="46">
         <v>8.6</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="46">
         <v>6.2</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="47">
         <v>-26.51</v>
       </c>
       <c r="L6" s="25">
@@ -13824,43 +13939,43 @@
       <c r="N6" s="27">
         <v>1752.9199999999901</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="48">
         <f t="shared" si="0"/>
         <v>-15007.919999999991</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D7" s="26">
         <v>45132</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="46">
         <v>19690.38</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="46">
         <v>19719.36</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="46">
         <v>11.65</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="46">
         <v>10.65</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="47">
         <v>-29.98</v>
       </c>
       <c r="L7" s="25">
@@ -13872,43 +13987,43 @@
       <c r="N7" s="27">
         <v>1755.73</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="48">
         <f t="shared" si="0"/>
         <v>-16745.73</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D8" s="26">
         <v>45133</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="46">
         <v>19776.46</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <v>19852.900000000001</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="46">
         <v>13.75</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="46">
         <v>2.95</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="47">
         <v>65.64</v>
       </c>
       <c r="L8" s="25">
@@ -13920,43 +14035,43 @@
       <c r="N8" s="27">
         <v>1760.93</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="48">
         <f t="shared" si="0"/>
         <v>31059.07</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>317</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>315</v>
       </c>
       <c r="D9" s="26">
         <v>45134</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="46">
         <v>19802.41</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="46">
         <v>19751.95</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="46">
         <v>25.5</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="46">
         <v>15.2</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="47">
         <v>40.159999999999997</v>
       </c>
       <c r="L9" s="25">
@@ -13968,43 +14083,43 @@
       <c r="N9" s="27">
         <v>1761.11</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f t="shared" si="0"/>
         <v>18318.89</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D10" s="26">
         <v>45135</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="46">
         <v>19763</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <v>19723.25</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="46">
         <v>33.75</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="46">
         <v>41.3</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <v>-32.200000000000003</v>
       </c>
       <c r="L10" s="25">
@@ -14016,43 +14131,43 @@
       <c r="N10" s="27">
         <v>1779.7</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O10" s="48">
         <f t="shared" si="0"/>
         <v>-17879.7</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D11" s="26">
         <v>45138</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <v>19839.849999999999</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="46">
         <v>19846</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="46">
         <v>25.85</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="46">
         <v>20.45</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="47">
         <v>0.75</v>
       </c>
       <c r="L11" s="25">
@@ -14064,43 +14179,43 @@
       <c r="N11" s="27">
         <v>1771.24</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="48">
         <f t="shared" si="0"/>
         <v>-1396.24</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D12" s="26">
         <v>45139</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="46">
         <v>19815</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="46">
         <v>19726.52</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="46">
         <v>19.850000000000001</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="46">
         <v>39.15</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="47">
         <v>-69.180000000000007</v>
       </c>
       <c r="L12" s="25">
@@ -14112,43 +14227,43 @@
       <c r="N12" s="27">
         <v>1785.78</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="48">
         <f t="shared" si="0"/>
         <v>-36375.78</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D13" s="26">
         <v>45140</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="46">
         <v>19653.32</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="46">
         <v>19529.7</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="46">
         <v>9.5</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="46">
         <v>2.65</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <v>130.47</v>
       </c>
       <c r="L13" s="25">
@@ -14160,43 +14275,43 @@
       <c r="N13" s="27">
         <v>1736.84</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="48">
         <f t="shared" si="0"/>
         <v>63498.16</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D14" s="26">
         <v>45141</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="46">
         <v>19472</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="46">
         <v>19529.95</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="46">
         <v>10.199999999999999</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="46">
         <v>13.8</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="47">
         <v>-54.35</v>
       </c>
       <c r="L14" s="25">
@@ -14208,43 +14323,43 @@
       <c r="N14" s="27">
         <v>1745.89</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="48">
         <f t="shared" si="0"/>
         <v>-28920.89</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D15" s="26">
         <v>45145</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="46">
         <v>19657</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="46">
         <v>19654</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="46">
         <v>25.5</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="46">
         <v>22.7</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="47">
         <v>0.2</v>
       </c>
       <c r="L15" s="25">
@@ -14256,43 +14371,43 @@
       <c r="N15" s="27">
         <v>1758.45</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="48">
         <f t="shared" si="0"/>
         <v>-1658.45</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D16" s="26">
         <v>45146</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="46">
         <v>19609.5</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="46">
         <v>19564</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="46">
         <v>177.9</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="46">
         <v>159.1</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="47">
         <v>26.7</v>
       </c>
       <c r="L16" s="25">
@@ -14304,43 +14419,43 @@
       <c r="N16" s="27">
         <v>1837.04</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="48">
         <f t="shared" si="0"/>
         <v>11512.96</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D17" s="26">
         <v>45147</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="46">
         <v>19699.349999999999</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="46">
         <v>19640.05</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="46">
         <v>4.2</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="47">
         <v>57.3</v>
       </c>
       <c r="L17" s="25">
@@ -14352,43 +14467,43 @@
       <c r="N17" s="27">
         <v>1744.6299999999901</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="48">
         <f t="shared" si="0"/>
         <v>26905.37000000001</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D18" s="26">
         <v>45148</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="46">
         <v>19603</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="46">
         <v>19551.099999999999</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="46">
         <v>20.85</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="46">
         <v>14.4</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="47">
         <v>45.45</v>
       </c>
       <c r="L18" s="25">
@@ -14400,43 +14515,43 @@
       <c r="N18" s="27">
         <v>1906.5</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="48">
         <f t="shared" si="0"/>
         <v>23091</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D19" s="26">
         <v>45152</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="46">
         <v>19474.05</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="46">
         <v>19380.68</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="46">
         <v>5.7</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="46">
         <v>3</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="47">
         <v>90.67</v>
       </c>
       <c r="L19" s="25">
@@ -14448,43 +14563,43 @@
       <c r="N19" s="27">
         <v>1883.3799999999901</v>
       </c>
-      <c r="O19" s="49">
+      <c r="O19" s="48">
         <f t="shared" si="0"/>
         <v>47985.12000000001</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D20" s="26">
         <v>45154</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <v>19483.419999999998</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <v>19460.53</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>9.65</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <v>5.85</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="47">
         <v>-26.69</v>
       </c>
       <c r="L20" s="25">
@@ -14496,43 +14611,43 @@
       <c r="N20" s="27">
         <v>1891.93</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="48">
         <f t="shared" si="0"/>
         <v>-16571.43</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D21" s="26">
         <v>45155</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="46">
         <v>19393.2</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="46">
         <v>19319.8</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="46">
         <v>20.37</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="46">
         <v>12.15</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="47">
         <v>65.180000000000007</v>
       </c>
       <c r="L21" s="25">
@@ -14544,43 +14659,43 @@
       <c r="N21" s="27">
         <v>1883.91</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="48">
         <f t="shared" si="0"/>
         <v>33965.089999999997</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D22" s="26">
         <v>45159</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="46">
         <v>19399.400000000001</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="46">
         <v>19411.05</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="46">
         <v>27.5</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="46">
         <v>19.899999999999999</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="47">
         <v>4.05</v>
       </c>
       <c r="L22" s="25">
@@ -14592,43 +14707,43 @@
       <c r="N22" s="27">
         <v>1896.68</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="48">
         <f t="shared" si="0"/>
         <v>330.81999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D23" s="26">
         <v>45160</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="46">
         <v>19395.5</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="46">
         <v>19390</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="46">
         <v>16</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="46">
         <v>12.35</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="47">
         <v>-9.15</v>
       </c>
       <c r="L23" s="25">
@@ -14640,43 +14755,43 @@
       <c r="N23" s="27">
         <v>1889.69</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="48">
         <f t="shared" si="0"/>
         <v>-6922.1900000000005</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D24" s="26">
         <v>45161</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="46">
         <v>19430</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <v>19535</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="46">
         <v>3.9</v>
       </c>
-      <c r="J24" s="47">
+      <c r="J24" s="46">
         <v>11.25</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="47">
         <v>-97.65</v>
       </c>
       <c r="L24" s="25">
@@ -14688,43 +14803,43 @@
       <c r="N24" s="27">
         <v>1905.95999999999</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="48">
         <f t="shared" si="0"/>
         <v>-55613.459999999992</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D25" s="26">
         <v>45162</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="46">
         <v>19398.2</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="46">
         <v>19274.099999999999</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="46">
         <v>46.8</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="46">
         <v>88.3</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="47">
         <v>-82.6</v>
       </c>
       <c r="L25" s="25">
@@ -14736,43 +14851,43 @@
       <c r="N25" s="27">
         <v>1960.1599999999901</v>
       </c>
-      <c r="O25" s="49">
+      <c r="O25" s="48">
         <f t="shared" si="0"/>
         <v>-47390.159999999989</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D26" s="26">
         <v>45166</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="46">
         <v>19320</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="46">
         <v>19341</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="46">
         <v>20.149999999999999</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="46">
         <v>13.25</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="47">
         <v>14.1</v>
       </c>
       <c r="L26" s="25">
@@ -14784,43 +14899,43 @@
       <c r="N26" s="27">
         <v>1885.56</v>
       </c>
-      <c r="O26" s="49">
+      <c r="O26" s="48">
         <f t="shared" si="0"/>
         <v>5869.4400000000005</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D27" s="26">
         <v>45167</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="46">
         <v>19338.95</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="46">
         <v>19406.599999999999</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="46">
         <v>13.85</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="46">
         <v>4.5</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="47">
         <v>58.3</v>
       </c>
       <c r="L27" s="25">
@@ -14832,43 +14947,43 @@
       <c r="N27" s="27">
         <v>1885.13</v>
       </c>
-      <c r="O27" s="49">
+      <c r="O27" s="48">
         <f t="shared" si="0"/>
         <v>30179.87</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D28" s="26">
         <v>45168</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="46">
         <v>19333.95</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="46">
         <v>19356.8</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="46">
         <v>6.4</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="46">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="47">
         <v>18.75</v>
       </c>
       <c r="L28" s="25">
@@ -14880,43 +14995,43 @@
       <c r="N28" s="27">
         <v>1879.4399999999901</v>
       </c>
-      <c r="O28" s="49">
+      <c r="O28" s="48">
         <f t="shared" si="0"/>
         <v>8433.0600000000104</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D29" s="26">
         <v>45169</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="46">
         <v>19421</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="46">
         <v>19402.55</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="46">
         <v>85.85</v>
       </c>
-      <c r="J29" s="47">
+      <c r="J29" s="46">
         <v>64.55</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="47">
         <v>-2.85</v>
       </c>
       <c r="L29" s="25">
@@ -14928,43 +15043,43 @@
       <c r="N29" s="27">
         <v>1927.06</v>
       </c>
-      <c r="O29" s="49">
+      <c r="O29" s="48">
         <f t="shared" si="0"/>
         <v>-3494.56</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D30" s="26">
         <v>45173</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="46">
         <v>19609.7</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="46">
         <v>19615.8</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="46">
         <v>23.65</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="46">
         <v>19.25</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="47">
         <v>1.7</v>
       </c>
       <c r="L30" s="25">
@@ -14976,43 +15091,43 @@
       <c r="N30" s="27">
         <v>1915.12</v>
       </c>
-      <c r="O30" s="49">
+      <c r="O30" s="48">
         <f t="shared" si="0"/>
         <v>-980.11999999999989</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D31" s="26">
         <v>45174</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="46">
         <v>19654.2</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="46">
         <v>19644.150000000001</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="46">
         <v>13.25</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="46">
         <v>7.9</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="47">
         <v>-15.4</v>
       </c>
       <c r="L31" s="25">
@@ -15024,43 +15139,43 @@
       <c r="N31" s="27">
         <v>1910.14</v>
       </c>
-      <c r="O31" s="49">
+      <c r="O31" s="48">
         <f t="shared" si="0"/>
         <v>-10380.14</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D32" s="26">
         <v>45175</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="46">
         <v>19660.849999999999</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="46">
         <v>19629.95</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="46">
         <v>1.5</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="46">
         <v>1.05</v>
       </c>
-      <c r="K32" s="48">
+      <c r="K32" s="47">
         <v>30.45</v>
       </c>
       <c r="L32" s="25">
@@ -15072,43 +15187,43 @@
       <c r="N32" s="27">
         <v>1904.29</v>
       </c>
-      <c r="O32" s="49">
+      <c r="O32" s="48">
         <f t="shared" si="0"/>
         <v>14843.21</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D33" s="26">
         <v>45176</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="46">
         <v>19766.25</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="46">
         <v>19814.2</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="46">
         <v>34.799999999999997</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="46">
         <v>22.7</v>
       </c>
-      <c r="K33" s="48">
+      <c r="K33" s="47">
         <v>35.85</v>
       </c>
       <c r="L33" s="25">
@@ -15120,43 +15235,43 @@
       <c r="N33" s="27">
         <v>1935.43</v>
       </c>
-      <c r="O33" s="49">
+      <c r="O33" s="48">
         <f t="shared" si="0"/>
         <v>17782.07</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D34" s="26">
         <v>45180</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="46">
         <v>20030</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="46">
         <v>20124.25</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="46">
         <v>31.3</v>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="46">
         <v>16.25</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="47">
         <v>79.2</v>
       </c>
       <c r="L34" s="25">
@@ -15168,43 +15283,43 @@
       <c r="N34" s="27">
         <v>2298.16</v>
       </c>
-      <c r="O34" s="49">
+      <c r="O34" s="48">
         <f t="shared" si="0"/>
         <v>49181.84</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D35" s="26">
         <v>45181</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="46">
         <v>20040</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="46">
         <v>20023.91</v>
       </c>
-      <c r="I35" s="47">
+      <c r="I35" s="46">
         <v>23.6</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J35" s="46">
         <v>26.38</v>
       </c>
-      <c r="K35" s="48">
+      <c r="K35" s="47">
         <v>-13.31</v>
       </c>
       <c r="L35" s="25">
@@ -15216,43 +15331,43 @@
       <c r="N35" s="27">
         <v>2298.7800000000002</v>
       </c>
-      <c r="O35" s="49">
+      <c r="O35" s="48">
         <f t="shared" si="0"/>
         <v>-10950.28</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D36" s="26">
         <v>45182</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="46">
         <v>20124.650000000001</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="46">
         <v>20173.91</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="46">
         <v>8.8699999999999992</v>
       </c>
-      <c r="J36" s="47">
+      <c r="J36" s="46">
         <v>2.5</v>
       </c>
-      <c r="K36" s="48">
+      <c r="K36" s="47">
         <v>42.89</v>
       </c>
       <c r="L36" s="25">
@@ -15264,43 +15379,43 @@
       <c r="N36" s="27">
         <v>2292.8399999999901</v>
       </c>
-      <c r="O36" s="49">
+      <c r="O36" s="48">
         <f t="shared" si="0"/>
         <v>25585.660000000011</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D37" s="26">
         <v>45183</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G37" s="46">
         <v>20169.12</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="46">
         <v>20199.21</v>
       </c>
-      <c r="I37" s="47">
+      <c r="I37" s="46">
         <v>35.869999999999997</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J37" s="46">
         <v>29.32</v>
       </c>
-      <c r="K37" s="48">
+      <c r="K37" s="47">
         <v>23.54</v>
       </c>
       <c r="L37" s="25">
@@ -15312,43 +15427,43 @@
       <c r="N37" s="27">
         <v>2317.58</v>
       </c>
-      <c r="O37" s="49">
+      <c r="O37" s="48">
         <f t="shared" si="0"/>
         <v>12983.42</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D38" s="26">
         <v>45189</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="46">
         <v>20162.63</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="46">
         <v>20074.41</v>
       </c>
-      <c r="I38" s="47">
+      <c r="I38" s="46">
         <v>24.32</v>
       </c>
-      <c r="J38" s="47">
+      <c r="J38" s="46">
         <v>10.15</v>
       </c>
-      <c r="K38" s="48">
+      <c r="K38" s="47">
         <v>74.05</v>
       </c>
       <c r="L38" s="25">
@@ -15360,43 +15475,43 @@
       <c r="N38" s="27">
         <v>2290.14</v>
       </c>
-      <c r="O38" s="49">
+      <c r="O38" s="48">
         <f t="shared" si="0"/>
         <v>45842.36</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D39" s="26">
         <v>45190</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="46">
         <v>19966.46</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="46">
         <v>19860.990000000002</v>
       </c>
-      <c r="I39" s="47">
+      <c r="I39" s="46">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J39" s="47">
+      <c r="J39" s="46">
         <v>1.8</v>
       </c>
-      <c r="K39" s="48">
+      <c r="K39" s="47">
         <v>97.47</v>
       </c>
       <c r="L39" s="25">
@@ -15408,43 +15523,43 @@
       <c r="N39" s="27">
         <v>2260.2399999999998</v>
       </c>
-      <c r="O39" s="49">
+      <c r="O39" s="48">
         <f t="shared" si="0"/>
         <v>61093.760000000002</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D40" s="26">
         <v>45191</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="46">
         <v>19782.61</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="46">
         <v>19789.759999999998</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="46">
         <v>53.53</v>
       </c>
-      <c r="J40" s="47">
+      <c r="J40" s="46">
         <v>51.15</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="47">
         <v>-9.5299999999999994</v>
       </c>
       <c r="L40" s="25">
@@ -15456,43 +15571,43 @@
       <c r="N40" s="27">
         <v>2290.89</v>
       </c>
-      <c r="O40" s="49">
+      <c r="O40" s="48">
         <f t="shared" si="0"/>
         <v>-8488.39</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D41" s="26">
         <v>45195</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="46">
         <v>19702.91</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="46">
         <v>19689</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="46">
         <v>22.95</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="46">
         <v>19.149999999999999</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="47">
         <v>10.11</v>
       </c>
       <c r="L41" s="25">
@@ -15504,43 +15619,43 @@
       <c r="N41" s="27">
         <v>2254.3000000000002</v>
       </c>
-      <c r="O41" s="49">
+      <c r="O41" s="48">
         <f t="shared" si="0"/>
         <v>4317.2</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="25" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D42" s="26">
         <v>45196</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="45">
         <v>0.13541666666666671</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="45">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="46">
         <v>19678.91</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="46">
         <v>19623.37</v>
       </c>
-      <c r="I42" s="47">
+      <c r="I42" s="46">
         <v>12.77</v>
       </c>
-      <c r="J42" s="47">
+      <c r="J42" s="46">
         <v>17.899999999999999</v>
       </c>
-      <c r="K42" s="48">
+      <c r="K42" s="47">
         <v>-50.41</v>
       </c>
       <c r="L42" s="25">
@@ -15552,20 +15667,20 @@
       <c r="N42" s="27">
         <v>2250.67</v>
       </c>
-      <c r="O42" s="49">
+      <c r="O42" s="48">
         <f t="shared" si="0"/>
         <v>-35017.17</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D43" s="26">
         <v>45197</v>
@@ -15601,7 +15716,7 @@
       <c r="N43" s="27">
         <v>2242.8000000000002</v>
       </c>
-      <c r="O43" s="49">
+      <c r="O43" s="48">
         <f t="shared" si="0"/>
         <v>-7865.3</v>
       </c>
@@ -15617,7 +15732,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15628,38 +15743,38 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>356</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -15667,18 +15782,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G2" s="51">
+        <v>361</v>
+      </c>
+      <c r="F2" s="52">
+        <v>2477164</v>
+      </c>
+      <c r="G2" s="52">
         <v>2477164</v>
       </c>
     </row>
@@ -15687,22 +15802,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -15710,22 +15825,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -15733,22 +15848,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
         <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -15756,22 +15871,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -15779,22 +15894,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -15802,22 +15917,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
         <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -15825,22 +15940,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -15848,22 +15963,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -15871,22 +15986,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D11" t="s">
         <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -15894,22 +16009,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -15917,22 +16032,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
         <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -15940,22 +16055,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
         <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -15963,22 +16078,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D15" t="s">
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -15986,22 +16101,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -16009,22 +16124,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D17" t="s">
         <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -16032,22 +16147,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -16055,22 +16170,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -16078,22 +16193,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D20" t="s">
         <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -16101,22 +16216,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -16124,22 +16239,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -16147,22 +16262,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -16170,22 +16285,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
         <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -16193,22 +16308,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -16216,22 +16331,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G26" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -16239,22 +16354,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -16262,22 +16377,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D28" t="s">
         <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -16285,22 +16400,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -16308,22 +16423,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G30" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -16331,22 +16446,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D31" t="s">
         <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -16354,22 +16469,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C32" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
         <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G32" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -16377,22 +16492,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F33" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -16400,22 +16515,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C34" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D34" t="s">
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G34" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -16423,22 +16538,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F35" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G35" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -16446,22 +16561,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D36" t="s">
         <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G36" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -16469,22 +16584,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D37" t="s">
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F37" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -16492,22 +16607,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G38" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -16515,22 +16630,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D39" t="s">
         <v>254</v>
       </c>
       <c r="E39" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F39" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -16538,22 +16653,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D40" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E40" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F40" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -16561,22 +16676,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C41" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G41" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -16584,22 +16699,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D42" t="s">
         <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -16607,22 +16722,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
         <v>255</v>
       </c>
       <c r="E43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G43" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -16630,22 +16745,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G44" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -16653,22 +16768,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D45" t="s">
         <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F45" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G45" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -16676,22 +16791,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D46" t="s">
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F46" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G46" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -16699,22 +16814,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D47" t="s">
         <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F47" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G47" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -16722,22 +16837,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F48" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G48" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -16745,22 +16860,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D49" t="s">
         <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F49" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G49" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -16768,22 +16883,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D50" t="s">
         <v>257</v>
       </c>
       <c r="E50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F50" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G50" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -16791,22 +16906,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C51" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -16814,22 +16929,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D52" t="s">
         <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F52" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G52" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -16837,22 +16952,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D53" t="s">
         <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F53" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G53" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -16860,22 +16975,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C54" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D54" t="s">
         <v>258</v>
       </c>
       <c r="E54" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F54" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G54" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -16883,22 +16998,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D55" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E55" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F55" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G55" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -16906,22 +17021,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C56" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D56" t="s">
         <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F56" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G56" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -16929,22 +17044,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C57" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D57" t="s">
         <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F57" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G57" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -16952,22 +17067,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D58" t="s">
         <v>259</v>
       </c>
       <c r="E58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F58" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -16975,22 +17090,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D59" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E59" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F59" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G59" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -16998,22 +17113,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C60" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D60" t="s">
         <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F60" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G60" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -17021,22 +17136,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D61" t="s">
         <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G61" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -17044,22 +17159,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D62" t="s">
         <v>260</v>
       </c>
       <c r="E62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G62" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -17067,22 +17182,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D63" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E63" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F63" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G63" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -17090,22 +17205,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D64" t="s">
         <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F64" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G64" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -17113,22 +17228,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C65" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D65" t="s">
         <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F65" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G65" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -17136,22 +17251,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C66" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D66" t="s">
         <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F66" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G66" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -17159,22 +17274,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D67" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E67" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F67" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G67" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -17182,22 +17297,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C68" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D68" t="s">
         <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F68" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G68" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -17205,22 +17320,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D69" t="s">
         <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G69" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -17228,22 +17343,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C70" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D70" t="s">
         <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F70" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G70" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -17251,22 +17366,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C71" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D71" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F71" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G71" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -17274,22 +17389,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C72" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
         <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F72" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G72" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -17297,22 +17412,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C73" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D73" t="s">
         <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F73" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G73" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -17320,22 +17435,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C74" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D74" t="s">
         <v>263</v>
       </c>
       <c r="E74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F74" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G74" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -17343,22 +17458,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D75" t="s">
         <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F75" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G75" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -17366,22 +17481,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D76" t="s">
         <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G76" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -17389,22 +17504,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E77" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F77" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -17412,22 +17527,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C78" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D78" t="s">
         <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -17435,22 +17550,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D79" t="s">
         <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F79" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G79" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -17458,22 +17573,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C80" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D80" t="s">
         <v>265</v>
       </c>
       <c r="E80" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F80" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G80" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -17481,22 +17596,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C81" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E81" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F81" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G81" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -17504,22 +17619,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D82" t="s">
         <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F82" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G82" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -17527,22 +17642,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D83" t="s">
         <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F83" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G83" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -17550,22 +17665,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D84" t="s">
         <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F84" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G84" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -17573,22 +17688,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D85" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F85" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G85" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -17596,22 +17711,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D86" t="s">
         <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G86" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -17619,22 +17734,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
         <v>124</v>
       </c>
       <c r="E87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F87" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G87" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -17642,22 +17757,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D88" t="s">
         <v>267</v>
       </c>
       <c r="E88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F88" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G88" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -17665,22 +17780,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D89" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F89" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G89" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -17688,22 +17803,22 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C90" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
         <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F90" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G90" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -17711,22 +17826,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D91" t="s">
         <v>128</v>
       </c>
       <c r="E91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F91" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G91" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -17734,22 +17849,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C92" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D92" t="s">
         <v>268</v>
       </c>
       <c r="E92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F92" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G92" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -17757,22 +17872,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D93" t="s">
         <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F93" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G93" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -17780,22 +17895,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C94" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D94" t="s">
         <v>134</v>
       </c>
       <c r="E94" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F94" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G94" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -17803,22 +17918,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C95" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D95" t="s">
         <v>269</v>
       </c>
       <c r="E95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F95" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G95" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -17826,22 +17941,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D96" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E96" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F96" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G96" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -17849,22 +17964,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D97" t="s">
         <v>136</v>
       </c>
       <c r="E97" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F97" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G97" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -17872,22 +17987,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D98" t="s">
         <v>139</v>
       </c>
       <c r="E98" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F98" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G98" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -17895,22 +18010,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C99" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D99" t="s">
         <v>270</v>
       </c>
       <c r="E99" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F99" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G99" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -17918,22 +18033,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C100" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D100" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E100" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F100" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G100" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -17941,22 +18056,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D101" t="s">
         <v>140</v>
       </c>
       <c r="E101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G101" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -17964,22 +18079,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D102" t="s">
         <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F102" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G102" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -17987,22 +18102,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C103" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D103" t="s">
         <v>271</v>
       </c>
       <c r="E103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F103" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G103" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -18010,22 +18125,22 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C104" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D104" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F104" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G104" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -18033,22 +18148,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C105" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D105" t="s">
         <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F105" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G105" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -18056,22 +18171,22 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C106" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D106" t="s">
         <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F106" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G106" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -18079,22 +18194,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C107" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D107" t="s">
         <v>272</v>
       </c>
       <c r="E107" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F107" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G107" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -18102,22 +18217,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C108" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D108" t="s">
         <v>150</v>
       </c>
       <c r="E108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F108" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G108" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -18125,22 +18240,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C109" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D109" t="s">
         <v>153</v>
       </c>
       <c r="E109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F109" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G109" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -18148,22 +18263,22 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C110" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s">
         <v>273</v>
       </c>
       <c r="E110" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F110" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G110" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -18171,22 +18286,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D111" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E111" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F111" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G111" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -18194,22 +18309,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C112" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D112" t="s">
         <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F112" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G112" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -18217,22 +18332,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C113" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D113" t="s">
         <v>157</v>
       </c>
       <c r="E113" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F113" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G113" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -18240,22 +18355,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C114" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D114" t="s">
         <v>274</v>
       </c>
       <c r="E114" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F114" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G114" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -18263,22 +18378,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C115" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D115" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E115" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F115" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G115" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -18286,22 +18401,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C116" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D116" t="s">
         <v>160</v>
       </c>
       <c r="E116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F116" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G116" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -18309,22 +18424,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C117" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D117" t="s">
         <v>163</v>
       </c>
       <c r="E117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F117" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G117" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -18332,22 +18447,22 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C118" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D118" t="s">
         <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F118" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G118" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -18355,22 +18470,22 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C119" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D119" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E119" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F119" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G119" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -18378,22 +18493,22 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C120" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D120" t="s">
         <v>166</v>
       </c>
       <c r="E120" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F120" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G120" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -18401,22 +18516,22 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D121" t="s">
         <v>167</v>
       </c>
       <c r="E121" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F121" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G121" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -18424,22 +18539,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C122" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D122" t="s">
         <v>276</v>
       </c>
       <c r="E122" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F122" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G122" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -18447,22 +18562,22 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C123" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D123" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E123" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F123" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G123" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -18470,22 +18585,22 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D124" t="s">
         <v>168</v>
       </c>
       <c r="E124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F124" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G124" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -18493,22 +18608,22 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D125" t="s">
         <v>169</v>
       </c>
       <c r="E125" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F125" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G125" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -18516,22 +18631,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
         <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F126" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G126" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -18539,22 +18654,22 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D127" t="s">
         <v>170</v>
       </c>
       <c r="E127" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F127" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G127" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -18562,22 +18677,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D128" t="s">
         <v>171</v>
       </c>
       <c r="E128" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F128" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G128" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -18585,22 +18700,22 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D129" t="s">
         <v>278</v>
       </c>
       <c r="E129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F129" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G129" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -18608,22 +18723,22 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C130" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D130" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E130" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F130" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G130" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -18631,22 +18746,22 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C131" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D131" t="s">
         <v>172</v>
       </c>
       <c r="E131" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G131" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -18654,22 +18769,22 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C132" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D132" t="s">
         <v>173</v>
       </c>
       <c r="E132" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F132" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G132" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -18677,19 +18792,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C133" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E133" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F133" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G133" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -18697,22 +18812,22 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C134" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D134" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F134" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G134" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -18720,22 +18835,22 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D135" t="s">
         <v>174</v>
       </c>
       <c r="E135" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F135" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G135" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -18743,22 +18858,22 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
         <v>175</v>
       </c>
       <c r="E136" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F136" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G136" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -18766,22 +18881,22 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C137" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D137" t="s">
         <v>279</v>
       </c>
       <c r="E137" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F137" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G137" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -18789,22 +18904,22 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C138" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D138" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E138" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F138" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G138" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -18812,22 +18927,22 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C139" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D139" t="s">
         <v>176</v>
       </c>
       <c r="E139" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F139" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G139" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -18835,22 +18950,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
         <v>177</v>
       </c>
       <c r="E140" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F140" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G140" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -18858,22 +18973,22 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C141" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D141" t="s">
         <v>280</v>
       </c>
       <c r="E141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F141" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G141" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -18881,22 +18996,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C142" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D142" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E142" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F142" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G142" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -18904,22 +19019,22 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C143" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D143" t="s">
         <v>178</v>
       </c>
       <c r="E143" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F143" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G143" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -18927,22 +19042,22 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C144" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D144" t="s">
         <v>179</v>
       </c>
       <c r="E144" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F144" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G144" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -18950,22 +19065,22 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C145" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D145" t="s">
         <v>281</v>
       </c>
       <c r="E145" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F145" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G145" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -18973,22 +19088,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C146" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D146" t="s">
         <v>180</v>
       </c>
       <c r="E146" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F146" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G146" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -18996,22 +19111,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C147" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D147" t="s">
         <v>181</v>
       </c>
       <c r="E147" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F147" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G147" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -19019,22 +19134,22 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C148" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D148" t="s">
         <v>282</v>
       </c>
       <c r="E148" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F148" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G148" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -19042,22 +19157,22 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C149" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D149" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F149" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G149" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -19065,22 +19180,22 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C150" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D150" t="s">
         <v>182</v>
       </c>
       <c r="E150" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F150" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G150" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -19088,22 +19203,22 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C151" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D151" t="s">
         <v>183</v>
       </c>
       <c r="E151" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F151" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G151" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -19111,22 +19226,22 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C152" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D152" t="s">
         <v>283</v>
       </c>
       <c r="E152" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F152" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G152" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -19134,22 +19249,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C153" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D153" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E153" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F153" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G153" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -19157,22 +19272,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C154" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D154" t="s">
         <v>184</v>
       </c>
       <c r="E154" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F154" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G154" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -19180,22 +19295,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C155" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D155" t="s">
         <v>185</v>
       </c>
       <c r="E155" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F155" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G155" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -19203,22 +19318,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C156" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D156" t="s">
         <v>284</v>
       </c>
       <c r="E156" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F156" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G156" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -19226,22 +19341,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C157" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D157" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E157" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F157" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G157" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -19249,22 +19364,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C158" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D158" t="s">
         <v>186</v>
       </c>
       <c r="E158" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F158" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G158" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -19272,22 +19387,22 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C159" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D159" t="s">
         <v>187</v>
       </c>
       <c r="E159" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F159" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G159" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -19295,22 +19410,22 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C160" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D160" t="s">
         <v>285</v>
       </c>
       <c r="E160" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F160" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G160" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -19318,22 +19433,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C161" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D161" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E161" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F161" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G161" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -19341,22 +19456,22 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C162" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D162" t="s">
         <v>188</v>
       </c>
       <c r="E162" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F162" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G162" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -19364,22 +19479,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C163" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D163" t="s">
         <v>189</v>
       </c>
       <c r="E163" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F163" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G163" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -19387,22 +19502,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C164" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D164" t="s">
         <v>286</v>
       </c>
       <c r="E164" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F164" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G164" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -19410,22 +19525,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C165" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D165" t="s">
         <v>190</v>
       </c>
       <c r="E165" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F165" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G165" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -19433,22 +19548,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C166" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D166" t="s">
         <v>191</v>
       </c>
       <c r="E166" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F166" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G166" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -19456,22 +19571,22 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C167" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D167" t="s">
         <v>287</v>
       </c>
       <c r="E167" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F167" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G167" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -19479,22 +19594,22 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C168" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D168" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E168" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F168" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G168" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -19502,22 +19617,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C169" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D169" t="s">
         <v>192</v>
       </c>
       <c r="E169" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F169" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G169" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -19525,22 +19640,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C170" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D170" t="s">
         <v>193</v>
       </c>
       <c r="E170" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F170" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G170" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -19548,22 +19663,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C171" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D171" t="s">
         <v>288</v>
       </c>
       <c r="E171" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F171" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G171" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -19571,22 +19686,22 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C172" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D172" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E172" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F172" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G172" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -19594,22 +19709,22 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C173" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D173" t="s">
         <v>194</v>
       </c>
       <c r="E173" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F173" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G173" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -19617,22 +19732,22 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D174" t="s">
         <v>196</v>
       </c>
       <c r="E174" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F174" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G174" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -19640,22 +19755,22 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C175" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D175" t="s">
         <v>289</v>
       </c>
       <c r="E175" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F175" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G175" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -19663,22 +19778,22 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D176" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E176" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F176" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G176" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -19686,22 +19801,22 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C177" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D177" t="s">
         <v>199</v>
       </c>
       <c r="E177" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F177" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G177" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -19709,22 +19824,22 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C178" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D178" t="s">
         <v>201</v>
       </c>
       <c r="E178" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F178" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G178" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -19732,22 +19847,22 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C179" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D179" t="s">
         <v>290</v>
       </c>
       <c r="E179" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F179" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G179" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -19755,22 +19870,22 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C180" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D180" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E180" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F180" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G180" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -19778,22 +19893,22 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C181" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D181" t="s">
         <v>204</v>
       </c>
       <c r="E181" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F181" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G181" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -19801,22 +19916,22 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C182" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D182" t="s">
         <v>207</v>
       </c>
       <c r="E182" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F182" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G182" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -19824,22 +19939,22 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C183" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D183" t="s">
         <v>291</v>
       </c>
       <c r="E183" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F183" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G183" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -19847,22 +19962,22 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C184" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D184" t="s">
         <v>210</v>
       </c>
       <c r="E184" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G184" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -19870,22 +19985,22 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D185" t="s">
         <v>212</v>
       </c>
       <c r="E185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G185" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -19893,22 +20008,22 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C186" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D186" t="s">
         <v>292</v>
       </c>
       <c r="E186" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F186" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G186" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -19916,22 +20031,22 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D187" t="s">
         <v>215</v>
       </c>
       <c r="E187" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G187" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -19939,22 +20054,22 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C188" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D188" t="s">
         <v>217</v>
       </c>
       <c r="E188" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G188" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -19962,22 +20077,22 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C189" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D189" t="s">
         <v>293</v>
       </c>
       <c r="E189" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G189" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -19985,22 +20100,22 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C190" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D190" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E190" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F190" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G190" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -20008,22 +20123,22 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D191" t="s">
         <v>220</v>
       </c>
       <c r="E191" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G191" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -20031,22 +20146,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C192" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D192" t="s">
         <v>223</v>
       </c>
       <c r="E192" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G192" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -20054,22 +20169,22 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C193" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D193" t="s">
         <v>294</v>
       </c>
       <c r="E193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G193" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -20077,22 +20192,22 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C194" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D194" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E194" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F194" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G194" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -20100,22 +20215,22 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D195" t="s">
         <v>225</v>
       </c>
       <c r="E195" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G195" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -20123,22 +20238,22 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C196" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D196" t="s">
         <v>227</v>
       </c>
       <c r="E196" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G196" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -20146,22 +20261,22 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C197" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D197" t="s">
         <v>295</v>
       </c>
       <c r="E197" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G197" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -20169,22 +20284,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C198" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D198" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E198" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F198" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G198" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -20192,22 +20307,22 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C199" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D199" t="s">
         <v>229</v>
       </c>
       <c r="E199" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G199" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -20215,22 +20330,22 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C200" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D200" t="s">
         <v>231</v>
       </c>
       <c r="E200" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F200" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G200" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -20238,22 +20353,22 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C201" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D201" t="s">
         <v>296</v>
       </c>
       <c r="E201" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G201" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -20261,22 +20376,22 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C202" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D202" t="s">
         <v>233</v>
       </c>
       <c r="E202" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F202" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G202" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -20284,22 +20399,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C203" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D203" t="s">
         <v>234</v>
       </c>
       <c r="E203" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F203" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G203" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -20307,22 +20422,22 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C204" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D204" t="s">
         <v>297</v>
       </c>
       <c r="E204" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F204" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G204" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -20330,22 +20445,22 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C205" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D205" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F205" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G205" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -20353,22 +20468,22 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C206" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D206" t="s">
         <v>235</v>
       </c>
       <c r="E206" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F206" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G206" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -20376,22 +20491,22 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C207" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D207" t="s">
         <v>236</v>
       </c>
       <c r="E207" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F207" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G207" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -20399,22 +20514,22 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C208" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D208" t="s">
         <v>298</v>
       </c>
       <c r="E208" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F208" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G208" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -20422,22 +20537,22 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C209" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D209" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G209" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -20445,22 +20560,22 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C210" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D210" t="s">
         <v>237</v>
       </c>
       <c r="E210" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F210" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G210" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -20468,22 +20583,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C211" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D211" t="s">
         <v>238</v>
       </c>
       <c r="E211" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F211" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G211" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -20491,22 +20606,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C212" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D212" t="s">
         <v>299</v>
       </c>
       <c r="E212" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F212" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G212" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -20514,22 +20629,68 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C213" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D213" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G213" t="s">
-        <v>843</v>
+        <v>844</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>845</v>
+      </c>
+      <c r="C214" t="s">
+        <v>360</v>
+      </c>
+      <c r="D214" t="s">
+        <v>300</v>
+      </c>
+      <c r="E214" t="s">
+        <v>369</v>
+      </c>
+      <c r="F214" t="s">
+        <v>846</v>
+      </c>
+      <c r="G214" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>848</v>
+      </c>
+      <c r="C215" t="s">
+        <v>373</v>
+      </c>
+      <c r="D215" t="s">
+        <v>301</v>
+      </c>
+      <c r="E215" t="s">
+        <v>369</v>
+      </c>
+      <c r="F215" t="s">
+        <v>849</v>
+      </c>
+      <c r="G215" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Desktop/Main/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966116E2-54D3-0840-9174-0CBC712D699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45498F5-C4B4-F248-9B64-7A43D616A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPWizard" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="123">
   <si>
     <t>Strategy</t>
   </si>
@@ -282,24 +282,36 @@
     <t>11:53</t>
   </si>
   <si>
-    <t>19650</t>
-  </si>
-  <si>
     <t>10:24</t>
   </si>
   <si>
     <t>10:50</t>
   </si>
   <si>
-    <t>19500</t>
-  </si>
-  <si>
     <t>10:27</t>
   </si>
   <si>
     <t>13:44</t>
   </si>
   <si>
+    <t>19750</t>
+  </si>
+  <si>
+    <t>10:33</t>
+  </si>
+  <si>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>19600</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
     <t>Trade Type</t>
   </si>
   <si>
@@ -357,9 +369,6 @@
     <t>11:34</t>
   </si>
   <si>
-    <t>Trade_Type</t>
-  </si>
-  <si>
     <t>Future_Entry</t>
   </si>
   <si>
@@ -379,6 +388,9 @@
   </si>
   <si>
     <t>BEARISH</t>
+  </si>
+  <si>
+    <t>LON</t>
   </si>
 </sst>
 </file>
@@ -748,16 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2809,17 +2818,17 @@
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <v>19650</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45204</v>
+      </c>
+      <c r="E55" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="3">
-        <v>45204</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>87</v>
-      </c>
-      <c r="F55" t="s">
-        <v>88</v>
       </c>
       <c r="G55">
         <v>73.570370370000006</v>
@@ -2847,17 +2856,17 @@
       <c r="B56" t="s">
         <v>19</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>19500</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
         <v>89</v>
-      </c>
-      <c r="D56" s="3">
-        <v>45204</v>
-      </c>
-      <c r="E56" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" t="s">
-        <v>91</v>
       </c>
       <c r="G56">
         <v>18.600000000000001</v>
@@ -2876,6 +2885,82 @@
       </c>
       <c r="L56">
         <v>50.339877999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45205</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57">
+        <v>64.054545449999992</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>-14.05454544999999</v>
+      </c>
+      <c r="J57">
+        <v>1760</v>
+      </c>
+      <c r="K57">
+        <v>-24735.99999199999</v>
+      </c>
+      <c r="L57">
+        <v>157.60591999976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58">
+        <v>110.39</v>
+      </c>
+      <c r="H58">
+        <v>110.1</v>
+      </c>
+      <c r="I58">
+        <v>-0.29000000000000631</v>
+      </c>
+      <c r="J58">
+        <v>1750</v>
+      </c>
+      <c r="K58">
+        <v>-507.50000000001091</v>
+      </c>
+      <c r="L58">
+        <v>287.32295649999998</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2899,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2920,10 +3005,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -2940,13 +3025,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -2955,10 +3040,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>205.95</v>
@@ -2978,13 +3063,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -2993,10 +3078,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H3">
         <v>170.61</v>
@@ -3016,13 +3101,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -3031,10 +3116,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H4">
         <v>154.31</v>
@@ -3063,13 +3148,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -3078,10 +3163,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H5">
         <v>125.68</v>
@@ -3110,13 +3195,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -3125,10 +3210,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H6">
         <v>105.4875</v>
@@ -3157,13 +3242,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -3172,10 +3257,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H7">
         <v>191.61</v>
@@ -3204,13 +3289,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -3219,10 +3304,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H8">
         <v>169.99</v>
@@ -3251,13 +3336,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -3266,10 +3351,10 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H9">
         <v>121.46250000000001</v>
@@ -3298,13 +3383,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>19300</v>
@@ -3313,10 +3398,10 @@
         <v>45154</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H10">
         <v>121.46250000000001</v>
@@ -3345,13 +3430,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>19400</v>
@@ -3360,10 +3445,10 @@
         <v>45155</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H11">
         <v>91.199999999999989</v>
@@ -3392,13 +3477,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -3407,10 +3492,10 @@
         <v>45156</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H12">
         <v>189.6</v>
@@ -3439,13 +3524,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>19300</v>
@@ -3454,10 +3539,10 @@
         <v>45159</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H13">
         <v>165.00714285999999</v>
@@ -3486,13 +3571,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>19400</v>
@@ -3501,10 +3586,10 @@
         <v>45160</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H14">
         <v>130.65</v>
@@ -3533,13 +3618,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>19400</v>
@@ -3548,10 +3633,10 @@
         <v>45161</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H15">
         <v>95.35</v>
@@ -3580,13 +3665,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>20000</v>
@@ -3595,10 +3680,10 @@
         <v>45182</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H16">
         <v>125.22</v>
@@ -3627,13 +3712,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <v>20100</v>
@@ -3642,10 +3727,10 @@
         <v>45183</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H17">
         <v>89.25</v>
@@ -3674,13 +3759,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>20200</v>
@@ -3689,10 +3774,10 @@
         <v>45184</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H18">
         <v>193.47</v>
@@ -3721,13 +3806,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>20100</v>
@@ -3736,10 +3821,10 @@
         <v>45187</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H19">
         <v>171.29</v>
@@ -3768,13 +3853,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D20">
         <v>20000</v>
@@ -3783,10 +3868,10 @@
         <v>45189</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H20">
         <v>131.44999999999999</v>
@@ -3815,13 +3900,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>19800</v>
@@ -3830,10 +3915,10 @@
         <v>45190</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H21">
         <v>74.45</v>
@@ -3862,13 +3947,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>19800</v>
@@ -3877,10 +3962,10 @@
         <v>45191</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H22">
         <v>201.86500000000001</v>
@@ -3909,13 +3994,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>19600</v>
@@ -3924,10 +4009,10 @@
         <v>45194</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H23">
         <v>195.95500000000001</v>
@@ -3956,13 +4041,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>19700</v>
@@ -3971,10 +4056,10 @@
         <v>45195</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H24">
         <v>145.35</v>
@@ -4003,13 +4088,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>19600</v>
@@ -4018,10 +4103,10 @@
         <v>45196</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H25">
         <v>119.05</v>
@@ -4050,13 +4135,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>19700</v>
@@ -4065,10 +4150,10 @@
         <v>45197</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H26">
         <v>80.94</v>
@@ -4097,13 +4182,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>19600</v>
@@ -4112,10 +4197,10 @@
         <v>45198</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H27">
         <v>208.11</v>
@@ -4144,13 +4229,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>19500</v>
@@ -4159,10 +4244,10 @@
         <v>45202</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H28">
         <v>164.31</v>
@@ -4191,13 +4276,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>19400</v>
@@ -4206,10 +4291,10 @@
         <v>45203</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H29">
         <v>121.9</v>
@@ -4238,25 +4323,25 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>19500</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>45204</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H30">
         <v>73</v>
@@ -4281,6 +4366,53 @@
       </c>
       <c r="O30">
         <v>222.38350600000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>19600</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45205</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31">
+        <v>188.63</v>
+      </c>
+      <c r="I31">
+        <v>184.65</v>
+      </c>
+      <c r="J31">
+        <v>8.65</v>
+      </c>
+      <c r="K31">
+        <v>6.2</v>
+      </c>
+      <c r="L31">
+        <v>1.52999999999999</v>
+      </c>
+      <c r="M31">
+        <v>500</v>
+      </c>
+      <c r="N31">
+        <v>764.99999999999477</v>
+      </c>
+      <c r="O31">
+        <v>307.8131765</v>
       </c>
     </row>
   </sheetData>
@@ -4290,33 +4422,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -4327,7 +4459,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -4356,7 +4488,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>450</v>
@@ -4385,7 +4517,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>600</v>
@@ -4414,7 +4546,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>550</v>
@@ -4443,7 +4575,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>550</v>
@@ -4472,7 +4604,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>650</v>
@@ -4501,7 +4633,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>650</v>
@@ -4530,7 +4662,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>650</v>
@@ -4559,7 +4691,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>650</v>
@@ -4588,7 +4720,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <v>650</v>
@@ -4617,7 +4749,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>650</v>
@@ -4646,7 +4778,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>650</v>
@@ -4675,7 +4807,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>650</v>
@@ -4700,6 +4832,35 @@
       </c>
       <c r="I14">
         <v>2230.8907069053089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>650</v>
+      </c>
+      <c r="C15">
+        <v>19569.142307689999</v>
+      </c>
+      <c r="D15">
+        <v>19616.726923080001</v>
+      </c>
+      <c r="E15">
+        <v>47.25</v>
+      </c>
+      <c r="F15">
+        <v>29.892307689999999</v>
+      </c>
+      <c r="G15">
+        <v>30.226923080001999</v>
+      </c>
+      <c r="H15">
+        <v>19647.500002001299</v>
+      </c>
+      <c r="I15">
+        <v>2254.5888293034409</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Desktop/Main/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45498F5-C4B4-F248-9B64-7A43D616A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30686B9C-6AC6-074B-A5ED-8545CE271945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPWizard" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="128">
   <si>
     <t>Strategy</t>
   </si>
@@ -60,6 +60,12 @@
     <t>Tax</t>
   </si>
   <si>
+    <t>Option Type</t>
+  </si>
+  <si>
+    <t>Net PnL</t>
+  </si>
+  <si>
     <t>MPWizard</t>
   </si>
   <si>
@@ -294,24 +300,33 @@
     <t>13:44</t>
   </si>
   <si>
-    <t>19750</t>
-  </si>
-  <si>
     <t>10:33</t>
   </si>
   <si>
     <t>10:44</t>
   </si>
   <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>13:07</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
     <t>19600</t>
   </si>
   <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>11:20</t>
-  </si>
-  <si>
     <t>Trade Type</t>
   </si>
   <si>
@@ -369,6 +384,9 @@
     <t>11:34</t>
   </si>
   <si>
+    <t>LON</t>
+  </si>
+  <si>
     <t>Future_Entry</t>
   </si>
   <si>
@@ -388,9 +406,6 @@
   </si>
   <si>
     <t>BEARISH</t>
-  </si>
-  <si>
-    <t>LON</t>
   </si>
 </sst>
 </file>
@@ -760,15 +775,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,13 +823,19 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>44800</v>
@@ -820,10 +844,10 @@
         <v>45142</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>308.52105262999999</v>
@@ -841,12 +865,12 @@
         <v>-22669.49999909999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>19950</v>
@@ -855,10 +879,10 @@
         <v>45142</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>91.9</v>
@@ -876,12 +900,12 @@
         <v>-21523.200000000019</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>19600</v>
@@ -890,10 +914,10 @@
         <v>45145</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>76.639583329999994</v>
@@ -911,12 +935,12 @@
         <v>-20459.499995999991</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>45000</v>
@@ -925,10 +949,10 @@
         <v>45146</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>187.55</v>
@@ -949,12 +973,12 @@
         <v>112.08709777</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>20050</v>
@@ -963,10 +987,10 @@
         <v>45146</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>58.2</v>
@@ -987,12 +1011,12 @@
         <v>98.344100799999993</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>19500</v>
@@ -1001,10 +1025,10 @@
         <v>45147</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>51.25</v>
@@ -1025,12 +1049,12 @@
         <v>268.80333272000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>44600</v>
@@ -1039,10 +1063,10 @@
         <v>45147</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>208.86</v>
@@ -1063,12 +1087,12 @@
         <v>146.68225709800001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>20050</v>
@@ -1077,10 +1101,10 @@
         <v>45148</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>108.5775</v>
@@ -1101,12 +1125,12 @@
         <v>131.72774480000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>19550</v>
@@ -1115,10 +1139,10 @@
         <v>45148</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>37.1</v>
@@ -1139,12 +1163,12 @@
         <v>60.738672000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>19450</v>
@@ -1153,10 +1177,10 @@
         <v>45149</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>100.366</v>
@@ -1177,12 +1201,12 @@
         <v>211.66252499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>44400</v>
@@ -1191,10 +1215,10 @@
         <v>45149</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>338.26153846</v>
@@ -1215,12 +1239,12 @@
         <v>119.922196329991</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>19400</v>
@@ -1229,10 +1253,10 @@
         <v>45152</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>67.2</v>
@@ -1253,12 +1277,12 @@
         <v>113.4216478</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>44100</v>
@@ -1267,10 +1291,10 @@
         <v>45152</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>185</v>
@@ -1291,12 +1315,12 @@
         <v>147.62674938399999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>19400</v>
@@ -1305,10 +1329,10 @@
         <v>45154</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>50.15</v>
@@ -1329,12 +1353,12 @@
         <v>157.86368279999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>43900</v>
@@ -1343,10 +1367,10 @@
         <v>45154</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>150.91999999999999</v>
@@ -1369,10 +1393,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>44000</v>
@@ -1381,10 +1405,10 @@
         <v>45155</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>109.74642857000001</v>
@@ -1407,10 +1431,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>19600</v>
@@ -1419,10 +1443,10 @@
         <v>45155</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>106.3</v>
@@ -1445,10 +1469,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>43900</v>
@@ -1457,10 +1481,10 @@
         <v>45156</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>288.92</v>
@@ -1483,10 +1507,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>19250</v>
@@ -1495,10 +1519,10 @@
         <v>45156</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>104.02</v>
@@ -1521,10 +1545,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>19300</v>
@@ -1533,10 +1557,10 @@
         <v>45159</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>79.099999999999994</v>
@@ -1559,10 +1583,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>44400</v>
@@ -1571,10 +1595,10 @@
         <v>45159</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>194.46250000000001</v>
@@ -1597,10 +1621,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>19650</v>
@@ -1609,10 +1633,10 @@
         <v>45160</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>26.738</v>
@@ -1635,10 +1659,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>44000</v>
@@ -1647,10 +1671,10 @@
         <v>45160</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>154.90833333</v>
@@ -1673,10 +1697,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>44100</v>
@@ -1685,10 +1709,10 @@
         <v>45161</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <v>144.69736842</v>
@@ -1711,10 +1735,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>19600</v>
@@ -1723,10 +1747,10 @@
         <v>45161</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G26">
         <v>117.48</v>
@@ -1749,10 +1773,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>45500</v>
@@ -1761,10 +1785,10 @@
         <v>45182</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>117.91578947000001</v>
@@ -1787,10 +1811,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>20300</v>
@@ -1799,10 +1823,10 @@
         <v>45182</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G28">
         <v>111.99</v>
@@ -1825,10 +1849,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>20350</v>
@@ -1837,10 +1861,10 @@
         <v>45183</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29">
         <v>109.63541667</v>
@@ -1863,10 +1887,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>45800</v>
@@ -1875,10 +1899,10 @@
         <v>45183</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>356.88235293999998</v>
@@ -1901,10 +1925,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>20500</v>
@@ -1913,10 +1937,10 @@
         <v>45184</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G31">
         <v>88.766666669999992</v>
@@ -1939,10 +1963,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>46200</v>
@@ -1951,10 +1975,10 @@
         <v>45184</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G32">
         <v>244.72738095</v>
@@ -1977,10 +2001,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>46200</v>
@@ -1989,10 +2013,10 @@
         <v>45187</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G33">
         <v>161</v>
@@ -2015,10 +2039,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>20500</v>
@@ -2027,10 +2051,10 @@
         <v>45187</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34">
         <v>17.95</v>
@@ -2053,10 +2077,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>20200</v>
@@ -2065,10 +2089,10 @@
         <v>45189</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G35">
         <v>121.21666667</v>
@@ -2091,10 +2115,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>20000</v>
@@ -2103,10 +2127,10 @@
         <v>45189</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G36">
         <v>51.3</v>
@@ -2129,10 +2153,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>19750</v>
@@ -2141,10 +2165,10 @@
         <v>45190</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37">
         <v>8.8000000000000007</v>
@@ -2167,10 +2191,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>45000</v>
@@ -2179,10 +2203,10 @@
         <v>45190</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G38">
         <v>284.66000000000003</v>
@@ -2205,10 +2229,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>45000</v>
@@ -2217,10 +2241,10 @@
         <v>45191</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G39">
         <v>275.94555556</v>
@@ -2243,10 +2267,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>19800</v>
@@ -2255,10 +2279,10 @@
         <v>45191</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>85.840277779999994</v>
@@ -2281,10 +2305,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>19600</v>
@@ -2293,10 +2317,10 @@
         <v>45194</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41">
         <v>109.04166667</v>
@@ -2319,10 +2343,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>44400</v>
@@ -2331,10 +2355,10 @@
         <v>45194</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42">
         <v>212.18</v>
@@ -2357,10 +2381,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>19650</v>
@@ -2369,10 +2393,10 @@
         <v>45195</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <v>66.198076920000005</v>
@@ -2395,10 +2419,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>44600</v>
@@ -2407,10 +2431,10 @@
         <v>45195</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G44">
         <v>217.36071429</v>
@@ -2433,10 +2457,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>19650</v>
@@ -2445,10 +2469,10 @@
         <v>45195</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G45">
         <v>66.198076920000005</v>
@@ -2471,10 +2495,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>44600</v>
@@ -2483,10 +2507,10 @@
         <v>45195</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G46">
         <v>217.36071429</v>
@@ -2509,10 +2533,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>19550</v>
@@ -2521,10 +2545,10 @@
         <v>45196</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G47">
         <v>58.83</v>
@@ -2547,10 +2571,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>44200</v>
@@ -2559,10 +2583,10 @@
         <v>45196</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G48">
         <v>193.22045455</v>
@@ -2583,12 +2607,12 @@
         <v>94.845507130045007</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>44700</v>
@@ -2597,10 +2621,10 @@
         <v>45197</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G49">
         <v>126.495</v>
@@ -2621,12 +2645,12 @@
         <v>194.39684661999999</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>19650</v>
@@ -2635,10 +2659,10 @@
         <v>45197</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G50">
         <v>29.1</v>
@@ -2659,12 +2683,12 @@
         <v>54.501594999999988</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>19800</v>
@@ -2673,10 +2697,10 @@
         <v>45198</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G51">
         <v>55.06</v>
@@ -2697,12 +2721,12 @@
         <v>198.0847296</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>44600</v>
@@ -2711,10 +2735,10 @@
         <v>45198</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G52">
         <v>229.44</v>
@@ -2735,12 +2759,12 @@
         <v>220.85930837199999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>43900</v>
@@ -2749,10 +2773,10 @@
         <v>45203</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G53">
         <v>117.32</v>
@@ -2773,12 +2797,12 @@
         <v>63.612365199999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>19350</v>
@@ -2787,10 +2811,10 @@
         <v>45203</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G54">
         <v>47.8</v>
@@ -2811,12 +2835,12 @@
         <v>82.26248394000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>19650</v>
@@ -2825,10 +2849,10 @@
         <v>45204</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G55">
         <v>73.570370370000006</v>
@@ -2849,12 +2873,12 @@
         <v>130.677589455988</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>19500</v>
@@ -2863,10 +2887,10 @@
         <v>45204</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G56">
         <v>18.600000000000001</v>
@@ -2887,24 +2911,24 @@
         <v>50.339877999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="3">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>19750</v>
+      </c>
+      <c r="D57" s="2">
         <v>45205</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G57">
         <v>64.054545449999992</v>
@@ -2925,17 +2949,17 @@
         <v>157.60591999976</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="3">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>19600</v>
+      </c>
+      <c r="D58" s="2">
         <v>45205</v>
       </c>
       <c r="E58" t="s">
@@ -2961,6 +2985,94 @@
       </c>
       <c r="L58">
         <v>287.32295649999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45208</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59">
+        <v>92.468181820000012</v>
+      </c>
+      <c r="H59">
+        <v>121.15</v>
+      </c>
+      <c r="I59">
+        <v>28.68181817999999</v>
+      </c>
+      <c r="J59">
+        <v>550</v>
+      </c>
+      <c r="K59">
+        <v>15774.999999</v>
+      </c>
+      <c r="L59">
+        <v>149.48158884878001</v>
+      </c>
+      <c r="M59" t="s">
+        <v>97</v>
+      </c>
+      <c r="N59">
+        <v>15625.51841015122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45208</v>
+      </c>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60">
+        <v>48.6</v>
+      </c>
+      <c r="H60">
+        <v>45.7</v>
+      </c>
+      <c r="I60">
+        <v>-2.899999999999999</v>
+      </c>
+      <c r="J60">
+        <v>520</v>
+      </c>
+      <c r="K60">
+        <v>-1507.9999999999991</v>
+      </c>
+      <c r="L60">
+        <v>76.859461519999996</v>
+      </c>
+      <c r="M60" t="s">
+        <v>99</v>
+      </c>
+      <c r="N60">
+        <v>-1584.8594615199991</v>
       </c>
     </row>
   </sheetData>
@@ -2970,13 +3082,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3005,10 +3119,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3022,16 +3136,19 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -3040,10 +3157,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <v>205.95</v>
@@ -3061,15 +3178,15 @@
         <v>-5695.0000020000016</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -3078,10 +3195,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H3">
         <v>170.61</v>
@@ -3099,15 +3216,15 @@
         <v>7744.00000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -3116,10 +3233,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H4">
         <v>154.31</v>
@@ -3146,15 +3263,15 @@
         <v>257.0702058</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -3163,10 +3280,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H5">
         <v>125.68</v>
@@ -3193,15 +3310,15 @@
         <v>249.38071719999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -3210,10 +3327,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H6">
         <v>105.4875</v>
@@ -3240,15 +3357,15 @@
         <v>220.15381959999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -3257,10 +3374,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H7">
         <v>191.61</v>
@@ -3287,15 +3404,15 @@
         <v>266.09166079995498</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -3304,10 +3421,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H8">
         <v>169.99</v>
@@ -3334,15 +3451,15 @@
         <v>286.69330424999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -3351,10 +3468,10 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
         <v>107</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
       </c>
       <c r="H9">
         <v>121.46250000000001</v>
@@ -3381,15 +3498,15 @@
         <v>278.99038899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>19300</v>
@@ -3398,10 +3515,10 @@
         <v>45154</v>
       </c>
       <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
         <v>107</v>
-      </c>
-      <c r="G10" t="s">
-        <v>102</v>
       </c>
       <c r="H10">
         <v>121.46250000000001</v>
@@ -3428,15 +3545,15 @@
         <v>278.99038899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>19400</v>
@@ -3445,10 +3562,10 @@
         <v>45155</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H11">
         <v>91.199999999999989</v>
@@ -3475,15 +3592,15 @@
         <v>198.73670615</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -3492,10 +3609,10 @@
         <v>45156</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H12">
         <v>189.6</v>
@@ -3522,15 +3639,15 @@
         <v>270.28518630060807</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13">
         <v>19300</v>
@@ -3539,10 +3656,10 @@
         <v>45159</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H13">
         <v>165.00714285999999</v>
@@ -3569,15 +3686,15 @@
         <v>262.39757310003012</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>19400</v>
@@ -3586,10 +3703,10 @@
         <v>45160</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H14">
         <v>130.65</v>
@@ -3616,15 +3733,15 @@
         <v>240.869822</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>19400</v>
@@ -3633,10 +3750,10 @@
         <v>45161</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H15">
         <v>95.35</v>
@@ -3663,15 +3780,15 @@
         <v>244.76290441</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D16">
         <v>20000</v>
@@ -3680,10 +3797,10 @@
         <v>45182</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H16">
         <v>125.22</v>
@@ -3710,15 +3827,15 @@
         <v>273.09381694000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>20100</v>
@@ -3727,10 +3844,10 @@
         <v>45183</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H17">
         <v>89.25</v>
@@ -3757,15 +3874,15 @@
         <v>205.17298734817581</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D18">
         <v>20200</v>
@@ -3774,10 +3891,10 @@
         <v>45184</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H18">
         <v>193.47</v>
@@ -3804,15 +3921,15 @@
         <v>305.65576989999988</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <v>20100</v>
@@ -3821,10 +3938,10 @@
         <v>45187</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H19">
         <v>171.29</v>
@@ -3851,15 +3968,15 @@
         <v>285.98049555</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>20000</v>
@@ -3868,10 +3985,10 @@
         <v>45189</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H20">
         <v>131.44999999999999</v>
@@ -3898,15 +4015,15 @@
         <v>303.47317249999998</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D21">
         <v>19800</v>
@@ -3915,10 +4032,10 @@
         <v>45190</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H21">
         <v>74.45</v>
@@ -3945,15 +4062,15 @@
         <v>231.66792624999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D22">
         <v>19800</v>
@@ -3962,10 +4079,10 @@
         <v>45191</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H22">
         <v>201.86500000000001</v>
@@ -3992,15 +4109,15 @@
         <v>314.03671215000003</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D23">
         <v>19600</v>
@@ -4009,10 +4126,10 @@
         <v>45194</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H23">
         <v>195.95500000000001</v>
@@ -4039,15 +4156,15 @@
         <v>291.91729179999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D24">
         <v>19700</v>
@@ -4056,10 +4173,10 @@
         <v>45195</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H24">
         <v>145.35</v>
@@ -4086,15 +4203,15 @@
         <v>268.21112829999998</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>19600</v>
@@ -4103,10 +4220,10 @@
         <v>45196</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H25">
         <v>119.05</v>
@@ -4133,15 +4250,15 @@
         <v>304.34718299999997</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D26">
         <v>19700</v>
@@ -4150,10 +4267,10 @@
         <v>45197</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H26">
         <v>80.94</v>
@@ -4180,15 +4297,15 @@
         <v>282.42100470000003</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D27">
         <v>19600</v>
@@ -4197,10 +4314,10 @@
         <v>45198</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H27">
         <v>208.11</v>
@@ -4227,15 +4344,15 @@
         <v>311.45885294999988</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D28">
         <v>19500</v>
@@ -4244,10 +4361,10 @@
         <v>45202</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H28">
         <v>164.31</v>
@@ -4274,15 +4391,15 @@
         <v>276.58999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>19400</v>
@@ -4291,10 +4408,10 @@
         <v>45203</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H29">
         <v>121.9</v>
@@ -4321,15 +4438,15 @@
         <v>252.50309849999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>19500</v>
@@ -4338,10 +4455,10 @@
         <v>45204</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H30">
         <v>73</v>
@@ -4368,27 +4485,27 @@
         <v>222.38350600000001</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D31">
         <v>19600</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>45205</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H31">
         <v>188.63</v>
@@ -4413,6 +4530,56 @@
       </c>
       <c r="O31">
         <v>307.8131765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32">
+        <v>19500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45208</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32">
+        <v>190.31</v>
+      </c>
+      <c r="I32">
+        <v>174.65</v>
+      </c>
+      <c r="J32">
+        <v>9.5</v>
+      </c>
+      <c r="K32">
+        <v>6.85</v>
+      </c>
+      <c r="L32">
+        <v>13.01</v>
+      </c>
+      <c r="M32">
+        <v>200</v>
+      </c>
+      <c r="N32">
+        <v>2601.9999999999991</v>
+      </c>
+      <c r="O32">
+        <v>234.14619400000001</v>
+      </c>
+      <c r="P32">
+        <v>2367.8538059999992</v>
       </c>
     </row>
   </sheetData>
@@ -4430,25 +4597,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -4459,7 +4626,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -4488,7 +4655,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>450</v>
@@ -4517,7 +4684,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>600</v>
@@ -4546,7 +4713,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>550</v>
@@ -4575,7 +4742,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>550</v>
@@ -4604,7 +4771,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>650</v>
@@ -4633,7 +4800,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>650</v>
@@ -4662,7 +4829,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>650</v>
@@ -4691,7 +4858,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>650</v>
@@ -4720,7 +4887,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>650</v>
@@ -4749,7 +4916,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>650</v>
@@ -4778,7 +4945,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>650</v>
@@ -4807,7 +4974,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B14">
         <v>650</v>
@@ -4836,7 +5003,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B15">
         <v>650</v>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -407,9 +407,6 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -2114,11 +2111,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -9378,17 +9375,17 @@
           <t>MP121</t>
         </is>
       </c>
-      <c r="B122" s="6" t="inlineStr">
+      <c r="B122" s="57" t="inlineStr">
         <is>
           <t>MPWizard</t>
         </is>
       </c>
-      <c r="C122" s="18" t="inlineStr">
+      <c r="C122" s="57" t="inlineStr">
         <is>
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="D122" s="6" t="n">
+      <c r="D122" s="57" t="n">
         <v>19800</v>
       </c>
       <c r="E122" s="18" t="inlineStr">
@@ -9399,29 +9396,29 @@
       <c r="F122" s="15" t="n">
         <v>45198</v>
       </c>
-      <c r="G122" s="7" t="n">
+      <c r="G122" s="58" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c r="H122" s="7" t="n">
+      <c r="H122" s="58" t="n">
         <v>0.4659722222222222</v>
       </c>
-      <c r="I122" s="8" t="n">
+      <c r="I122" s="59" t="n">
         <v>55.06</v>
       </c>
-      <c r="J122" s="8" t="n">
+      <c r="J122" s="59" t="n">
         <v>62</v>
       </c>
-      <c r="K122" s="8" t="n">
+      <c r="K122" s="59" t="n">
         <v>6.94</v>
       </c>
-      <c r="L122" s="6" t="n">
+      <c r="L122" s="57" t="n">
         <v>1760</v>
       </c>
-      <c r="M122" s="14">
+      <c r="M122" s="59">
         <f>L122*K122</f>
         <v/>
       </c>
-      <c r="N122" s="14" t="n">
+      <c r="N122" s="59" t="n">
         <v>198.0847296</v>
       </c>
       <c r="O122" s="8">
@@ -9824,6 +9821,226 @@
       <c r="O129" s="8">
         <f>M129-N129</f>
         <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="inlineStr">
+        <is>
+          <t>MP129</t>
+        </is>
+      </c>
+      <c r="B130" s="57" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C130" s="57" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D130" s="57" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E130" s="18" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F130" s="15" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G130" s="58" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="H130" s="58" t="n">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="I130" s="59" t="n">
+        <v>92.46818182</v>
+      </c>
+      <c r="J130" s="59" t="n">
+        <v>121.15</v>
+      </c>
+      <c r="K130" s="59" t="n">
+        <v>28.68181818</v>
+      </c>
+      <c r="L130" s="57" t="n">
+        <v>550</v>
+      </c>
+      <c r="M130" s="59" t="n">
+        <v>15775</v>
+      </c>
+      <c r="N130" s="59" t="n">
+        <v>149.4815888</v>
+      </c>
+      <c r="O130" s="8" t="n">
+        <v>15625.51841</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>MP130</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C131" s="18" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E131" s="18" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F131" s="15" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G131" s="7" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="H131" s="7" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="I131" s="8" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J131" s="8" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="K131" s="8" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="L131" s="56" t="n">
+        <v>520</v>
+      </c>
+      <c r="M131" s="14" t="n">
+        <v>-1508</v>
+      </c>
+      <c r="N131" s="14" t="n">
+        <v>76.85946152</v>
+      </c>
+      <c r="O131" s="8" t="n">
+        <v>-1584.859462</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="B132" s="6" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C132" s="18" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E132" s="18" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F132" s="15" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G132" s="7" t="n">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="H132" s="7" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="I132" s="8" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="J132" s="8" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="K132" s="8" t="n">
+        <v>-20.23</v>
+      </c>
+      <c r="L132" s="56" t="n">
+        <v>950</v>
+      </c>
+      <c r="M132" s="14" t="n">
+        <v>-19218.5</v>
+      </c>
+      <c r="N132" s="14" t="n">
+        <v>92.79000000000001</v>
+      </c>
+      <c r="O132" s="8" t="n">
+        <v>-19311.28733</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C133" s="18" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E133" s="18" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F133" s="15" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G133" s="7" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="H133" s="7" t="n">
+        <v>0.5583333333333333</v>
+      </c>
+      <c r="I133" s="8" t="n">
+        <v>118.85</v>
+      </c>
+      <c r="J133" s="8" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="K133" s="8" t="n">
+        <v>-63.7</v>
+      </c>
+      <c r="L133" s="56" t="n">
+        <v>300</v>
+      </c>
+      <c r="M133" s="14" t="n">
+        <v>-19110</v>
+      </c>
+      <c r="N133" s="14" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="O133" s="8" t="n">
+        <v>-19178.39135</v>
       </c>
     </row>
   </sheetData>
@@ -9837,10 +10054,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -13733,6 +13950,128 @@
         <v/>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>AP62</t>
+        </is>
+      </c>
+      <c r="B63" s="25" t="inlineStr">
+        <is>
+          <t>Nifty Straddle</t>
+        </is>
+      </c>
+      <c r="C63" s="25" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D63" s="25" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="E63" s="48" t="n">
+        <v>19500</v>
+      </c>
+      <c r="F63" s="37" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G63" s="42" t="n">
+        <v>0.3930555555555555</v>
+      </c>
+      <c r="H63" s="42" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="I63" s="43" t="n">
+        <v>190.31</v>
+      </c>
+      <c r="J63" s="43" t="n">
+        <v>174.65</v>
+      </c>
+      <c r="K63" s="43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L63" s="43" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="M63" s="43" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="N63" s="44" t="n">
+        <v>200</v>
+      </c>
+      <c r="O63" s="45" t="n">
+        <v>2602</v>
+      </c>
+      <c r="P63" s="60" t="n">
+        <v>234.146194</v>
+      </c>
+      <c r="Q63" s="45" t="n">
+        <v>2367.853806</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>AP63</t>
+        </is>
+      </c>
+      <c r="B64" s="25" t="inlineStr">
+        <is>
+          <t>Nifty Straddle</t>
+        </is>
+      </c>
+      <c r="C64" s="25" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D64" s="25" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="E64" s="48" t="n">
+        <v>19600</v>
+      </c>
+      <c r="F64" s="37" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G64" s="42" t="n">
+        <v>0.3930555555555555</v>
+      </c>
+      <c r="H64" s="42" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="I64" s="43" t="n">
+        <v>153.46</v>
+      </c>
+      <c r="J64" s="43" t="n">
+        <v>174.06</v>
+      </c>
+      <c r="K64" s="43" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="L64" s="43" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M64" s="43" t="n">
+        <v>-19.15</v>
+      </c>
+      <c r="N64" s="44" t="n">
+        <v>400</v>
+      </c>
+      <c r="O64" s="45" t="n">
+        <v>-7660</v>
+      </c>
+      <c r="P64" s="60" t="n">
+        <v>289.51</v>
+      </c>
+      <c r="Q64" s="45" t="n">
+        <v>-7949.514657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13744,15 +14083,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col width="8.77734375" customWidth="1" style="6" min="1" max="3"/>
+    <col width="8.77734375" customWidth="1" style="6" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="10.88671875" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
     <col width="13.33203125" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
     <col width="8.77734375" customWidth="1" style="6" min="5" max="6"/>
     <col width="13.88671875" bestFit="1" customWidth="1" style="6" min="7" max="8"/>
@@ -13762,8 +14103,8 @@
     <col width="11.109375" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
     <col width="8.77734375" customWidth="1" style="52" min="14" max="14"/>
     <col width="10" bestFit="1" customWidth="1" style="52" min="15" max="15"/>
-    <col width="8.77734375" customWidth="1" style="6" min="16" max="22"/>
-    <col width="8.77734375" customWidth="1" style="6" min="23" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="6" min="16" max="25"/>
+    <col width="8.77734375" customWidth="1" style="6" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13851,7 +14192,7 @@
       </c>
       <c r="B2" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C2" s="49" t="inlineStr">
@@ -13905,7 +14246,7 @@
       </c>
       <c r="B3" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C3" s="49" t="inlineStr">
@@ -13959,7 +14300,7 @@
       </c>
       <c r="B4" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C4" s="49" t="inlineStr">
@@ -14013,7 +14354,7 @@
       </c>
       <c r="B5" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C5" s="49" t="inlineStr">
@@ -14067,7 +14408,7 @@
       </c>
       <c r="B6" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C6" s="49" t="inlineStr">
@@ -14121,7 +14462,7 @@
       </c>
       <c r="B7" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C7" s="49" t="inlineStr">
@@ -14175,7 +14516,7 @@
       </c>
       <c r="B8" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C8" s="49" t="inlineStr">
@@ -14229,7 +14570,7 @@
       </c>
       <c r="B9" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C9" s="49" t="inlineStr">
@@ -14283,7 +14624,7 @@
       </c>
       <c r="B10" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C10" s="49" t="inlineStr">
@@ -14337,7 +14678,7 @@
       </c>
       <c r="B11" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C11" s="49" t="inlineStr">
@@ -14391,7 +14732,7 @@
       </c>
       <c r="B12" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C12" s="49" t="inlineStr">
@@ -14445,7 +14786,7 @@
       </c>
       <c r="B13" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C13" s="49" t="inlineStr">
@@ -14499,7 +14840,7 @@
       </c>
       <c r="B14" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C14" s="49" t="inlineStr">
@@ -14553,7 +14894,7 @@
       </c>
       <c r="B15" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C15" s="49" t="inlineStr">
@@ -14607,7 +14948,7 @@
       </c>
       <c r="B16" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C16" s="49" t="inlineStr">
@@ -14661,7 +15002,7 @@
       </c>
       <c r="B17" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C17" s="49" t="inlineStr">
@@ -14715,7 +15056,7 @@
       </c>
       <c r="B18" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C18" s="49" t="inlineStr">
@@ -14769,7 +15110,7 @@
       </c>
       <c r="B19" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C19" s="49" t="inlineStr">
@@ -14823,7 +15164,7 @@
       </c>
       <c r="B20" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C20" s="49" t="inlineStr">
@@ -14877,7 +15218,7 @@
       </c>
       <c r="B21" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C21" s="49" t="inlineStr">
@@ -14931,7 +15272,7 @@
       </c>
       <c r="B22" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C22" s="49" t="inlineStr">
@@ -14985,7 +15326,7 @@
       </c>
       <c r="B23" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C23" s="49" t="inlineStr">
@@ -15039,7 +15380,7 @@
       </c>
       <c r="B24" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C24" s="49" t="inlineStr">
@@ -15093,7 +15434,7 @@
       </c>
       <c r="B25" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C25" s="49" t="inlineStr">
@@ -15147,7 +15488,7 @@
       </c>
       <c r="B26" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C26" s="49" t="inlineStr">
@@ -15201,7 +15542,7 @@
       </c>
       <c r="B27" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C27" s="49" t="inlineStr">
@@ -15255,7 +15596,7 @@
       </c>
       <c r="B28" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C28" s="49" t="inlineStr">
@@ -15309,7 +15650,7 @@
       </c>
       <c r="B29" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C29" s="49" t="inlineStr">
@@ -15363,7 +15704,7 @@
       </c>
       <c r="B30" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C30" s="49" t="inlineStr">
@@ -15417,7 +15758,7 @@
       </c>
       <c r="B31" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C31" s="49" t="inlineStr">
@@ -15471,7 +15812,7 @@
       </c>
       <c r="B32" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C32" s="49" t="inlineStr">
@@ -15525,7 +15866,7 @@
       </c>
       <c r="B33" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C33" s="49" t="inlineStr">
@@ -15579,7 +15920,7 @@
       </c>
       <c r="B34" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C34" s="49" t="inlineStr">
@@ -15633,7 +15974,7 @@
       </c>
       <c r="B35" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C35" s="49" t="inlineStr">
@@ -15687,7 +16028,7 @@
       </c>
       <c r="B36" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C36" s="49" t="inlineStr">
@@ -15741,7 +16082,7 @@
       </c>
       <c r="B37" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C37" s="49" t="inlineStr">
@@ -15795,7 +16136,7 @@
       </c>
       <c r="B38" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C38" s="49" t="inlineStr">
@@ -15849,7 +16190,7 @@
       </c>
       <c r="B39" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C39" s="49" t="inlineStr">
@@ -15903,7 +16244,7 @@
       </c>
       <c r="B40" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C40" s="49" t="inlineStr">
@@ -15957,7 +16298,7 @@
       </c>
       <c r="B41" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C41" s="49" t="inlineStr">
@@ -16011,7 +16352,7 @@
       </c>
       <c r="B42" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C42" s="49" t="inlineStr">
@@ -16065,7 +16406,7 @@
       </c>
       <c r="B43" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C43" s="49" t="inlineStr">
@@ -16120,7 +16461,7 @@
       </c>
       <c r="B44" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C44" s="49" t="inlineStr">
@@ -16175,7 +16516,7 @@
       </c>
       <c r="B45" s="49" t="inlineStr">
         <is>
-          <t>OverNight</t>
+          <t>Overnight_Options</t>
         </is>
       </c>
       <c r="C45" s="49" t="inlineStr">
@@ -16222,18 +16563,18 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="15.6" customHeight="1">
+    <row r="46" ht="19.05" customHeight="1">
       <c r="A46" s="6" t="inlineStr">
         <is>
           <t>OO45</t>
         </is>
       </c>
-      <c r="B46" s="61" t="inlineStr">
-        <is>
-          <t>OverNight</t>
-        </is>
-      </c>
-      <c r="C46" s="57" t="inlineStr">
+      <c r="B46" s="49" t="inlineStr">
+        <is>
+          <t>Overnight_Options</t>
+        </is>
+      </c>
+      <c r="C46" s="49" t="inlineStr">
         <is>
           <t>BULLISH</t>
         </is>
@@ -16247,25 +16588,25 @@
       <c r="F46" s="55" t="n">
         <v>0.3875</v>
       </c>
-      <c r="G46" s="59" t="n">
+      <c r="G46" s="52" t="n">
         <v>19569.14231</v>
       </c>
-      <c r="H46" s="59" t="n">
+      <c r="H46" s="52" t="n">
         <v>19616.72692</v>
       </c>
-      <c r="I46" s="59" t="n">
+      <c r="I46" s="52" t="n">
         <v>47.25</v>
       </c>
-      <c r="J46" s="59" t="n">
+      <c r="J46" s="52" t="n">
         <v>29.89230769</v>
       </c>
-      <c r="K46" s="59" t="n">
+      <c r="K46" s="52" t="n">
         <v>30.22692308</v>
       </c>
-      <c r="L46" s="61" t="n">
+      <c r="L46" s="49" t="n">
         <v>650</v>
       </c>
-      <c r="M46" s="59" t="n">
+      <c r="M46" s="52" t="n">
         <v>19647.5</v>
       </c>
       <c r="N46" s="52" t="n">
@@ -16274,6 +16615,59 @@
       <c r="O46" s="52">
         <f>M46-N46</f>
         <v/>
+      </c>
+    </row>
+    <row r="47" ht="15.6" customHeight="1">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>OO46</t>
+        </is>
+      </c>
+      <c r="B47" s="49" t="inlineStr">
+        <is>
+          <t>Overnight_Options</t>
+        </is>
+      </c>
+      <c r="C47" s="49" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="D47" s="50" t="n">
+        <v>45209</v>
+      </c>
+      <c r="E47" s="51" t="n">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="F47" s="51" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="G47" s="52" t="n">
+        <v>19538.05</v>
+      </c>
+      <c r="H47" s="52" t="n">
+        <v>19626.86</v>
+      </c>
+      <c r="I47" s="52" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="J47" s="52" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="K47" s="53" t="n">
+        <v>-69.31</v>
+      </c>
+      <c r="L47" s="49" t="n">
+        <v>250</v>
+      </c>
+      <c r="M47" s="52" t="n">
+        <v>-17327.5</v>
+      </c>
+      <c r="N47" s="52" t="n">
+        <v>1041.55</v>
+      </c>
+      <c r="O47" s="52" t="n">
+        <v>-18369.04959</v>
       </c>
     </row>
   </sheetData>
@@ -16287,7 +16681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16296,37 +16690,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="inlineStr">
+      <c r="A1" s="62" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="63" t="inlineStr">
+      <c r="B1" s="62" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="63" t="inlineStr">
+      <c r="C1" s="62" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="63" t="inlineStr">
+      <c r="D1" s="62" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="63" t="inlineStr">
+      <c r="E1" s="62" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="63" t="inlineStr">
+      <c r="F1" s="62" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="63" t="inlineStr">
+      <c r="G1" s="62" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -24550,6 +24944,251 @@
       <c r="G236" t="inlineStr">
         <is>
           <t>₹ 29,18,999.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>MP129</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>₹ 15,625.52</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>₹ 29,34,624.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>MP130</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-₹ 1,584.86</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>₹ 29,33,039.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>AP62</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>₹ 2,367.85</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>₹ 29,35,407.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>-₹ 19,311.29</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>₹ 29,16,096.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>-₹ 19,178.39</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>₹ 28,96,917.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>AP63</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>-₹ 7,949.51</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>₹ 28,88,968.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>OO46</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Overnight Options</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>-₹ 18,369.05</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>₹ 28,70,599.37</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="3" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,6 +53,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -64,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -95,6 +100,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -105,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -133,6 +153,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -528,37 +551,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -2445,8 +2468,8 @@
   <cols>
     <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
     <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="9"/>
-    <col width="8.77734375" customWidth="1" style="2" min="10" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
+    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2798,8 +2821,8 @@
     <col width="21.77734375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
     <col width="8.77734375" customWidth="1" style="2" min="3" max="3"/>
     <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="9"/>
-    <col width="8.77734375" customWidth="1" style="2" min="10" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
+    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3253,8 +3276,8 @@
   <cols>
     <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
     <col width="18.109375" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="9"/>
-    <col width="8.77734375" customWidth="1" style="2" min="10" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
+    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3606,8 +3629,8 @@
     <col width="8.77734375" customWidth="1" style="2" min="3" max="3"/>
     <col width="21.109375" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="18.109375" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="9"/>
-    <col width="8.77734375" customWidth="1" style="2" min="10" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
+    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3844,7 +3867,7 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -3854,8 +3877,10 @@
     <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
     <col width="8.77734375" customWidth="1" style="2" min="6" max="11"/>
     <col width="9.21875" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
-    <col width="8.77734375" customWidth="1" style="2" min="13" max="16"/>
-    <col width="8.77734375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="13" max="13"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.77734375" customWidth="1" style="2" min="15" max="17"/>
+    <col width="8.77734375" customWidth="1" style="2" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4149,7 +4174,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/UserProfile/excel/omkar.xlsx
+++ b/UserProfile/excel/omkar.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,16 +19,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,28 +36,7 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
+    <font/>
     <font>
       <b val="1"/>
     </font>
@@ -69,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,43 +57,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -122,46 +66,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="number_style" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="number_style" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -530,8 +464,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -551,37 +489,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -1790,55 +1728,55 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Tr.No</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Equity</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Entry Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Exit Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Entry Price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Exit Price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Trade Points</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>PnL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Margin Used </t>
         </is>
@@ -1858,592 +1796,580 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="21.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" min="4" max="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>MP157</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>FINNIFTY23OCT19150PE</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.44861111111</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>73.53</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>72.7</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-0.83</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>1360</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>-1128.8</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>170.45</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>-1299.25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MP158</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N021100PE</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.47986111111</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>93.73</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>76.41</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-17.32</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>1350</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>-23382</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>176.45</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>-23558.45</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>MP159</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY23N0143000PE</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45230.5125</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>187.49</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>-1.49</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>-558.75</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>134.14</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-692.89</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>MP160</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219100PE</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45230.47430555556</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>86.98999999999999</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>-18.89</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>1150</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>-21723.5</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>145.45</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>-21868.95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>MP161</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>FINNIFTY23N0719100PE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45231.46875</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45231.51875</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>107.99</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>83.89</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>-24.1</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>1160</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>-27956</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>144.14</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="5" t="n">
         <v>-28100.14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>MP162</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY23N0142600PE</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>45231.46944444445</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>45231.62569444445</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>51.47</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>-49.47</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="5" t="n">
         <v>-18551.25</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <v>132.12</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="5" t="n">
         <v>-18683.37</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>MP163</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219100PE</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>45232.61944444444</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>24.6</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>-22.6</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="1" t="n">
         <v>950</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="5" t="n">
         <v>-21470</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="5" t="n">
         <v>595.03</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="5" t="n">
         <v>-22065.03</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>MP164</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY23N0843000PE</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="6" t="n">
         <v>45232.59444444445</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5" t="n">
         <v>283.93</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>246</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>-37.93000000000001</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="5" t="n">
         <v>-10241.1</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>50.16</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>-10291.26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>MP165</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0919250CE</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 14:40:00</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="D10" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45233.61111111111</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>110.48</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="5" t="n">
         <v>95.34999999999999</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>-15.13</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="5" t="n">
         <v>-25721</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="5" t="n">
         <v>249.97</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="5" t="n">
         <v>-25970.97</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>MP166</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY23N0843400CE</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 11:19:00</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="n">
+      <c r="D11" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45233.47152777778</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>243.59</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="5" t="n">
         <v>202.08</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="n">
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>-41.51</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="1" t="n">
         <v>645</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="5" t="n">
         <v>-26773.95</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="5" t="n">
         <v>210.43</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="5" t="n">
         <v>-26984.38</v>
       </c>
     </row>
@@ -2461,340 +2387,330 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
-    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol Symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>AP75</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219000PE</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.62222222222</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>205.99</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>225.24</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="5" t="n">
         <v>13.05</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="5" t="n">
         <v>9.85</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="5" t="n">
         <v>-22.45</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>-11225</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>347.07</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>-11572.07</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>AP76</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219200CE</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45230.39375</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45230.62222222222</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>172.45</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>150.35</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="5" t="n">
         <v>6.1</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="5" t="n">
         <v>19.15</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>9575</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>286.66</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>9288.34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AP77</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219100CE</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45231.40347222222</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45231.61458333334</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>140.41</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>141.1</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>4.95</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="5" t="n">
         <v>2.7</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>-2.94</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>-1470</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>302.45</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-1772.45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>AP78</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219100CE</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45232.38958333333</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45232.62222222222</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>87.7</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>29.7</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>1.05</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="5" t="n">
         <v>57.05</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>28525</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>208.25</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>28316.75</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>AP79</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0919200CE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 09:21:00</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 14:56:00</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="n">
+      <c r="D6" s="6" t="n">
+        <v>45233.38958333333</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>45233.62222222222</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>212.99</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>192.15</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="5" t="n">
         <v>9.5</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="5" t="n">
         <v>8.25</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="5" t="n">
         <v>19.59</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>10774.5</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>326.52</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="5" t="n">
         <v>10447.98</v>
       </c>
     </row>
@@ -2812,448 +2728,422 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="21.77734375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.77734375" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
-    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Error1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219000PE</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>8.15</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>53.62</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>96.38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Error2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>FINNIFTY23N0719100PE</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>111.19</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>106.92</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-4.27</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>1160</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>-4953.2</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>97.06</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>-5050.26</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Error3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY23N0142600PE</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45231.46666666667</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>63.69</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>59.35</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>-4.34</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>-1627.5</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>53.7</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-1681.2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Error4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219500CE</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45232.38888888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45232.39097222222</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>-180</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>48.59</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>-228.59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Error5</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219250CE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45232.38888888889</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45232.39097222222</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>5.15</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>7.15</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>-2</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>-3600</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>49.21</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="5" t="n">
         <v>-3649.21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Error6</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>SENSEX23N0365200CE</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>45233.38888888889</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>45233.40902777778</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>1.3</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <f>F7-G7</f>
-        <v/>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L7" s="6">
-        <f>K7*J7</f>
-        <v/>
-      </c>
-      <c r="M7" s="6" t="n">
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
         <v>48.79</v>
       </c>
-      <c r="N7" s="6">
-        <f>L7-M7</f>
-        <v/>
-      </c>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Error7</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>SENSEX23N0364900CE</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>45233.40833333333</v>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>03/11/2023  15:25:00 AM</t>
         </is>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>3.95</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f>F8-G8</f>
-        <v/>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L8" s="6">
-        <f>K8*J8</f>
-        <v/>
-      </c>
-      <c r="M8" s="6" t="n">
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
         <v>49.2</v>
       </c>
-      <c r="N8" s="6">
-        <f>L8-M8</f>
-        <v/>
-      </c>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3269,341 +3159,326 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="18.109375" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
-    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ET1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>MIDCPNIFTY23OCT8800CE</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.38125</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.62291666667</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>2.4</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="5" t="n">
         <v>2.35</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>4200</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>9870</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>88.27</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>9781.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ET2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>FINNIFTY23OCT19400CE</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45230.38958333333</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45230.63541666666</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>12.85</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="5" t="n">
         <v>11.95</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>21510</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>21422</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>ET3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY23N0142900CE</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45231.38888888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45231.64027777778</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>65.42</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>5.9</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>59.47</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>22301.25</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>91.27</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>22209.98</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>ET4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219250CE</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45232.38888888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45232.64236111111</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>5.15</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="5" t="n">
         <v>4.550000000000001</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>8190.000000000001</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>88.79000000000001</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>8101.210000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>ET5</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219250CE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45233.39305555556</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45233.64236111111</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>27.05</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="5" t="n">
         <v>1.3</v>
       </c>
-      <c r="J6" s="6">
-        <f>(F6-G6)+(I6-H6)</f>
-        <v/>
-      </c>
-      <c r="K6" s="2" t="n">
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L6" s="6">
-        <f>K6*J6</f>
-        <v/>
-      </c>
-      <c r="M6" s="6" t="n">
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
         <v>90.58</v>
       </c>
-      <c r="N6" s="6">
-        <f>L6-M6</f>
-        <v/>
-      </c>
+      <c r="N6" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3619,240 +3494,240 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="22.6640625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.77734375" customWidth="1" style="2" min="3" max="3"/>
-    <col width="21.109375" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="18.109375" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="10"/>
-    <col width="8.77734375" customWidth="1" style="2" min="11" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Extra1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>ONGC23NOV185CE</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45230.46666666667</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="5" t="n">
         <v>3.85</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="G2" s="5" t="inlineStr"/>
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="inlineStr"/>
+      <c r="K2" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Extra2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>ITC23NOV440CE</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45231.41180555556</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="5" t="n">
         <v>4.35</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="inlineStr"/>
+      <c r="K3" s="1" t="n">
         <v>3200</v>
       </c>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Extra3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>AUROPHARMA23NOV860CE</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45231.64444444444</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="5" t="n">
         <v>25.5</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="1" t="n">
         <v>1100</v>
       </c>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Extra4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>ICICIBANK23NOV940CE</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45233.60347222222</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45233.64236111111</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="5" t="n">
         <v>11.7</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <f>G5-F5</f>
-        <v/>
-      </c>
-      <c r="K5" s="7" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="L5" s="2">
-        <f>K5*J5</f>
-        <v/>
-      </c>
-      <c r="M5" s="2" t="n">
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
         <v>52.2</v>
       </c>
-      <c r="N5" s="2">
-        <f>L5-M5</f>
-        <v/>
-      </c>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3867,297 +3742,281 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="11"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
-    <col width="8.77734375" customWidth="1" style="2" min="13" max="13"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.77734375" customWidth="1" style="2" min="15" max="17"/>
-    <col width="8.77734375" customWidth="1" style="2" min="18" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>OO28</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NIFTY23NOVFUT</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.63541666666</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45230.3875</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>19209.8</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>19237.65</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="5" t="n">
         <v>30.05</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="5" t="n">
         <v>38.65</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="5" t="n">
         <v>-19.25</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>-9625</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>1742.87</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>-11367.87</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>OO29</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>NIFTY23NOVFUT</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45230.63541666666</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45231.3875</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>19162.81</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>19151.29</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>26.8</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="5" t="n">
         <v>27.45</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="5" t="n">
         <v>-10.87</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>-7065.5</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>1810.82</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>-8876.32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>OO30</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>NIFTY23NOVFUT</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-01 15:15:00</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="D4" s="6" t="n">
+        <v>45231.63541666666</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>45232.3875</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>19056.47</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>19221.63</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>8.35</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>-142.51</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>-92631.5</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>1823.82</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-94455.32000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>OO31</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY30NOV23F</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-02 15:15:00</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 09:18:00</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n">
+      <c r="D5" s="6" t="n">
+        <v>45232.63541666666</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>45233.3875</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>19228.37</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>19348.02</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>35.1</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="5" t="n">
         <v>14.11</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="5" t="n">
         <v>98.66</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="5" t="n">
         <v>64160</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>2211.68</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>61917.32</v>
       </c>
     </row>
@@ -4175,50 +4034,50 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>transaction_type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>W1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>28-Oct-23 00:00</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>-164372</v>
       </c>
     </row>
